--- a/products.xlsx
+++ b/products.xlsx
@@ -394,7 +394,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=eG2CSlRlD9jsRXakdi+zLP///w==k9gUJ4SeV4FzpCsoqTbjwlLWrfmNYm0hQxQvJ3ZdV+J4bt0c1k8HLPNE82enfTENoue2lh5hDt+09lzM4Lt0kqqxIvsnk37c3nqGmmrebmMMZ6T73CZeL6n3TeMRBBbUAUYGceDv5u0d07wdaF5Phtt8rF0ap6BvigJK7Avyc8+ujJx8IIwyx0gkEPPg9yQZY5fWKxIFygo9/pRUY788hs0kJNHbnrsKfW3kvXlTW2phfFMV3tJY5B9LhKTFxlG/NNp5a21ThbR+mz+fN1Nq9rT8FdMfb96pj2e507/glPeNL2gSXQfsvWPtgP6NYEdTUe7p5zhpVSf7k1UQCcY3zGsj8KSiOVD5qAZ4TqdENPC/8tZBiQwq66tenM1CL+obzBSaNt5fgOvmtINlGH4hPPyO0uH3JDT/wj9HYdEjU3Klyj97d56ctykbvqa5TuXJaYQZEyUhPEdVoiHcFf7KpK3WzvA2/OhHDQqRoC/upCeGg27MVUlMv+hZppGTGlmaEFZ+bTk5VWB5/g9zrrysmoWI1pPd0oVTRNBAOq7cZOMwZore6s2SX79knMzL+AqSm5WpajeinNjxQu5VNXzZZ7Kzn8Bd3BjFu/0d9gess+VEr/2uh5PpQFrlbS9TRZ/BqvArO3CPhPE5Lki/dq/AogwPcUUxtnC2nNbX2SWo+k2dOT2GW51cuFOTSv/8aZc6A</t>
+          <t>https://adcr.naver.com/adcr?x=Q7bt7zrP/ojQ7BtLyamilv///w==kZcIm5Yre6rMKAkLU/A+ntLuGioNEG6shFkrv62BAp7wFesnflBfcWXQy2j7s0XuMgu5LgWaveNGznZeQDtCb3Kovz72L9iOHIxo/8ogd0Ro0oYk8dicSvn/WsbRENrbJr+SGKI/T2R2x+Kz6EPrc6ITLN3gOHY/2YU6myLlDe+dArVih4XHCjTo1mhylibMKEW7bF49zO8jxwrYnyCdzUCdu/eSc3STEJXXmJWAbZ+3KmmjMGPJOZQveUb8yxdZ1ehxbmsyzBe+KWGbWY+8CjyD1VeaVFDrD32JukmNTwyhGoFcGpHq30PespfYli/pnu+D4CrqQ/cmYCA0DldRpQCeGU0oiGh+Q4EW52pUTL4WLc8fIMzGJdr66bdtNVi4OMFNijo3NpEP2/fzVQTTfBnS4fm1w5mq3r4G1CLq6JPwiXqfeeGyX/B07ylZ3JgEzlnxOtNXAy9OlzYEGXzjVRoS/uwRACUGhRAtDYMmtvaNcnmc8IsFy7fi40L/Ph7H/hjKjqdvWmE+dZ+917zjhsx+9z/YRlovKSzJi0mXSndfkC+XEBsX5Qo+vW/FEU+UXRpGg7yHvbMsPXDXsBaZKhlYGkg1w5Zy4GBjczYEm2J/RWRfsGmgXD9j6+WXcVmRzqWFDJgF3RJvhlw7KyWiZ8oEoHSfW0SgGBTcSgIDekelOttYyDoV/bWKmxMuZ1ANB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -417,20 +417,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=avmYHsOXv3Ic2PEyKnAA5////w==kDVHDk/cy4AcgiFgG8z2mZMu6y9Ax2bfblZRYpF7O2YNaFap9L4anDSly6IXQ87KwNmyjON9PUmVku4ESR3eRxv7U7ntjJGCHa61UIZBDrzjzMMROQsNUUmcTFwjrTQHzpOddSx94XP8M3fi/bsdPEEecrf1sX436JCseCz4o8uFTVKKh2yUh+taC4crfMggmiUo6XIBAuHTMVAWJt68xhDobf0tFhaRHYU2I/gGSkF4lVbyzhhdIuzAWkXoWsiGA5SbwOEb/4+59UGXfU29/EdSKwI2/aymqgQktSwiNXgKcDWGax7MhwvkzBGtW1ZS7V80f/mMV/XW4lVgjzy7gA3m5cu0R3MFheFR6KGGbyEMGAxcq1x3fNytjDRhTaFcNAu8Z5+g20jXzh5BJlpyJBEexJ6/lFH/RfJ/mAyikSGgkwK/ETTkGsbn4o7fbQhhQ2JNB5kSCg0uLcyCi/nIiqNS51GAeHmygOFkGvkPAPfotmRSYV1cmEb043S/IKtS9Kyh0AyFQIcgXCXBymtCNVBt/DGEeVFfOBq5Sp1SjdcmNkv/+sxkc9V77XeJe9Yzv2BKThqBF7ZYYG5nJslX0g1biTo9of9OI9zzrP5rl4zuZZDx+bFeXxdXpmF7+IOXEFCOhwBhCqWz39sL7QB1VVff9tNwiZbMLhgrirxXc9ML2Ce044Mf+GBmLyIa2X+/x</t>
+          <t>https://adcr.naver.com/adcr?x=My/SzXoyOdVjOT+w+hQ/vv///w==kNOfArDyK8LmOXlNYKqx7ITEGhFF8+LHzighKPGPpCvETLOEALqRPehZ/gTe0eBJbeV3WiOao9hXqkZbh5qU1T5X6tmW8P/AJuXXiQa5M3RlG6VH7YB6gpx8ruZR/KWjIo3tzhrGaqfLGBjfT+/0pYvkWyEWO5oXhfStGbTIaOWip391N6AcHBn+Ee/hza0yQ2wU9reUscVObD7V3KO/33ycuGZWh8xbocfXtLPARUDqLOs5ziMqqcqaWtg6oUZH3FqAuB2g2ZrhihloafNrnR9tCpR66DI96w5mosns8L1NK5e+MOdSrL7xmSShWJKzCtoKgxZL7BDWi4+itS5HK6VeFncOAg2HCWgNGR5EUakm5YVc708WKbFzqRLmvxMTmBSSV23OjFvON6WC4aULaxoI7/V2ZzH+DvdBKU1Vnsh3xiE7p7Syeq2hL1F2tOjQFT+ZhTvxblDbH+kzF0wRhgfpr0jiIyu74T+xkHCRXRYLtyOGYanzRnwppKG568571ZD2oOBxQjV+x5Fbvp58RfrBO5JM4/QMM1kjbwdwM3BRZadGqwVEhEH2GT+4m5pIV3YV5dGlJKIApwVFVUTW16FjB6dJ6wFvXNMjxlLpaL9IEnzTaoIpQvkNQ3eQnE8Ni5PFYMZnz6Lb+btAZEFWqEi2QxOVzhjlMlfyDvAr6Rvw=</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>삼성전자 AF19RX772BZK</t>
+          <t>신일산업 SMA-PH3300</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2267850</v>
+        <v>1224490</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>삼성전자 AF19RX772BZK</t>
+          <t>신일산업 SMA-PH3300</t>
         </is>
       </c>
     </row>
@@ -440,20 +440,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=IiVgaEcVuRytXisii8QU7f///w==krDq66OsW1S/xjNOxhKI9voalZvFUJXbS68OrA2yX4wfLkiSoA/BUs8iFYPv/fhBd4VGV9sQRNZ6G6RIqd5vZvM8z39gc9Y4m9/LhmN3qmqa8hsJc8OVFuaRvfj8Q9zau7eGV/ufcv6bIIhHCRZ3YsT4T3+D3IcF3T66U9tckJPVX/82jVBOtnGNB4xmvvqVoMC0GUm4MsZydEyJ2uDorg58TzGNNxGt6LKkckWu05qe+Ro71Q5MuxFaDSITUxUNXe/zrSSlM9c231B02gEmg97JafdO28emnjn7SzVguBAav/23YpLdG7PKwekcH9XjssVtByLyxdkpfz2iDNAW0x29/QHPEk1g+ihYPTKuakqGj52URzagGsnVE+FhgjmmBE072HLq5yQpOYSDXUOTCoe/8sPL+MYwFxpQ2DKA4ePJbiaz1UnegLfiVindegJErWa+pFNghxfr6uYChsVGWub5z/FqAWn8dRsuKL9sQ+/by+OdOFAU/YHtlaASyCrpLqD/mHgK7RMWbipUwLjbQoseVJrJYzjsKev8696tHuJ2We2ZwCQfqHwto/XP60oJShd5QNZIEejA4SJnUqaLe2vpw5SJbz+kSgdiixDF5vDn+4cUTQ+6rnUMq6BuR7BvZZtB4QMf67x27Sn0RBY60UA==</t>
+          <t>https://adcr.naver.com/adcr?x=ZdQIwuwaWsYvsYtF++9azf///w==komDIB4H1OD288yZ34MU2BuEmizXTdT2pAy5XYawkwJYU/aHfS3IpqpMGgwsw4iRbQqAbHoIPF0/9ox4trwMAOgUIFpzL9wWyVsiTPKli23b6jDaiQsZNgqxL/VdTl3xNBvYU9NKkGM50rHS6t5p3rtZrT02EnZQBrry6YYbsQAuKB1kcF+AnWYlMvSI7ug4sKzkdG0yzx4rHa7Kqim5hh0ZyrVOt36HSJE8mZyc8j0J5uveQLiBT/GEZGVjE/IIai2JM2kClD/Mu3steHMeiNHP8nWR+2Sc8YGKH+tCOLQUdZVONX+7rFRE7uVCuNACUyDc0CjxsnPn+O+D9lyglnN5TmuN/q3GH97AEUW9AKpF6J3TPxAh9Anx7ZIKF25sZPlo8uFOn3+viiOjV0a8dNS12W0XdaFIULYq7wQTHNBLpbehHMAZTHOE97YOa+5CMHgwm+1YgHs3EnNSfXf3X4I0CeMaXKSSawg2BlcyvJx/1MhBPQpmBGZVSdF6vjMhHvzcJ+sQgJqNf4u6LxB2rodhsp1r3fZQa862xHz1UbKfnSoqMNbOPblxPkJStNxDLDZtDa8H2IDgIRrmic2Z82LFcE+J6ZFLBl/lI2pLQVnv/hXD1hiVYMtofcN3gy8O0NSZHAVx3omDJGyRPjrKP2cn59SWMKeanwapVPZPEg+6UvKPg3e75D0NSgmZ5zabD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>헵시바 에어렉스 HWC-1470</t>
+          <t>삼성전자 AF19RX772BZK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1435490</v>
+        <v>2267850</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>헵시바 에어렉스 HWC-1470</t>
+          <t>삼성전자 AF19RX772BZK</t>
         </is>
       </c>
     </row>
@@ -463,20 +463,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=Y55qrj5GHXzjAWUUGQBTa////w==k5FYixenj7bqIiBLgYvICCdEVB97Wsy98op4c2EdbNXjTVQWz/ieCB231w/vLOUWqfey38hgtEzNEqosfO9G7O+WQH+KpKfFvldYwTUQLopTeTP3wIS9qub1C3+z5GrzZ5vQ7laXyIogIOmyNyPduwObZie+YFXcMjbqK1Cylc3vhqJ2S3yoilPetP5bt2EMvma25pMqRr/ucYOXloGt7PatoQiUPLSp3eXfnB+9e6RblynEUeBidP3IU0dm97pYheJTaYKdoAcl7UWB2ovDTzHpeJ7FdkMg8x9AUGAN/2GdmqyqO4gNsgRo4jrtUcpPuwPgR/DDQKGoSZ6WQcYdRxady5rIhFUl2DAMvowAXiG46o15UYC2nVTJRMmY5eKBnAd885g9SkmiaNbiDZ+8r1yQgxt+WOU8xPuyIapHgaFQS0IvU67bUQmc9Bbyql1Nv4x/DyORnDBtRFvr4k6k+DCGU3LYCHGuKOJXZZRYfO/r2po8kJ3DT0kJCAu6GSzkkqDzQlSQQSxG3TP22A7mtPKUrUw18IrthB6DZ2WKa/xl0g0I0GxPz5/FInlusoOjzYX4BKilSVczlSkv/80WltEf3BIuXt5669Md51UoKrpePoqOsmf4eDmWS+XaXJSbvteMHZdmZuUIsfhp/ud1BrA==</t>
+          <t>https://adcr.naver.com/adcr?x=ie3Vfv+t94PoDei0AazCIP///w==k310+gXQtbcNyF7JZAsUmJ8v2RnJomxOyRZGbADHQwV4kd6NbnJOl53cQ9oMrSXslBVumrMwpIW7tk/IFKMi2JrW5lvQcNzi90bHc5RyTuCH0OzazvCE+00lBJ5nJJ3m87HqMZkm5SEaMdhXFvP2R1hwwf7F3qdmlz5Nmtfeycv/hAOuMFf/tid6gh+nAp+ura8Ps+IM2ZrSzjQVIJ/99SLbO0b6fF2pi/1THrCMLQ870oQmS/uDF1iphgDO827QCMo3r+OIss883rEqSJhb1SAk+xRGeLomF8eV4msNzrtjLTurb+KdPJSp6jXMYeKdO/3MbGrsWcIbEgSaJNyjS7v0RTJzIb0u3xlxF/7mcfRNnLl8XrzW/2HIh3Op4QrsaAK5KmQD9VQ3rKD3CffVGkG3M8Jsn2rZwbKXvpqVsl9+HxHBwhc/MHeePBdM+sy6p2Rl9/61wUE7xoDr1spDmqcutubk7J/w9KhCGJqFl9sGFGWMWxGU2xpk2+tGkMAqtWOZt+C1LglBVKdA53uk/iMnulvx8uQkLtcPq7pFHmcVCUASA/AeKZ4FbrDDHYs6+a1Gc3t5yAHtUZdaJu7XAwiqdKv4Kwe+rqStULMTXEeGj/4QCpM6SQiUfDPZZR+dduRo7URVV29tAns8GjR30DTbaejYeLErJY+DVgZkqnlITm7h9zIGayEGd49UdMz2S</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>헵시바 에어렉스 HWC-2470</t>
+          <t>에이스전자 AEPA-JJ7000B</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1958000</v>
+        <v>297780</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>헵시바 에어렉스 HWC-2470</t>
+          <t>에이스전자 AEPA-JJ7000B</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=2HZKKLAbRWrCXUsSS7tpb%2F%2F%2F%2Fw%3D%3DswShorDd83PPr5BHTwQ92bhkii4YOcChi84Ug%2FnXgpFCxvftOu908Nr%2FUHPIPW%2BdxxGdR29e%2ByX%2F819yAl4wpxsI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiCsoLvXGG5wchaNBjoXwXhnBaFWwqThJ2LSy7Av%2FsQBvKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LMxNBWQ3ZwWqIuOYFYe0JLUmQljqWhi8FaEuM6TU0zJWfZTIAf%2FvImEcW7nc%2B0RRhNP2a4GhKPI6ZRz05BnuZ%2BMM6li1IiPQs2jhzFe5fVREZeNdMkKFVLihn4XBLEIfcAf7TacBULqvATPl3WRtWk9Cicl%2BoMqU0Wf%2Bgk0Hb62z0IgqhR28eexMTWBKUksQQCWTRpC%2B79MRJ%2BN4cvpW0QAotkWvIPRxyN4x6D3SvmQXLdZznuLbLAzURc7bof4TxiQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=Uiuk84rtjaLqH827qjuTKf%2F%2F%2Fw%3D%3DsSfUPSe0D5o4F3yZ3M8u0GXnUeiyGyAlqrrM9A95iqWe0ab1F%2FiNRjBAioL5DOy3nIHNUE0KaBXCorKs7z2A%2BpSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiCsoLvXGG5wchaNBjoXwXhnBaFWwqThJ2LSy7Av%2FsQBvKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBJaHJxfxgPEbh1C7HK%2FaeHCiL59sHIDW0QmdCB3V%2FLmm9AQJ6gOk%2FrL%2FoRwuNrBYedOEvcrPgBhs04ctY1bschbGWjtTV24JKUwcnZBv8E1uj9gfLLEmK7C4KiDjK0Vaj7JFBPspEHZmmDh3CnKLM8o0pvpuf8pzV225nTfLgSuywpWy8bhQvBSeSnm87zTeORdLjMHA7Lt97Z9Cmrr20VU3G4y2p12MPFctesMO2ke52h%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>464630</v>
+        <v>464620</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=nmNRPIIejXtsKZbmzznVxP%2F%2F%2Fw%3D%3DspM%2FqDsQB1shwklDKBmLfhj%2Ft0HamyYac7sFNldDkynC0ab1F%2FiNRjBAioL5DOy3nHTrbnow75kOZhq9XpqvqQMI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiAiL3C6V5sS1IcKDhIHOqnzsveVTktqJi3%2BWukEH4WdazrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCyvHb8CfM8VWpfIt4tu10syRBsd1Czx%2B3ZZckFy1LL%2B89EjKUXVDhg22CGCax%2FkmPwuLF68y1i1ISVimiN0AtAbFQf3fWMMiI2zxb2SmvXsoYZUu14Muyn0H%2BB7y3Uzyv7PONn%2Ffb5C3ZkfQ9VBfRKuKUwpY6aRsklquSb2xdJoW3s%2FzlZ%2BEPEWaQdaRtROEsNXeeqksJ3UXuK33ZMs%2Fao%2F3aSm%2B8qWAQ%2FpcHCC0RohHRfj4W%2BUZYig%2FbwkUmaRbhOtZUH%2BidabrIb6F1ctGzgp</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=yjLJRY8AW%2BvKlNPMAisx8v%2F%2F%2Fw%3D%3Ds858pcTOsRA6ihMhcQXw4sj%2Ft0HamyYac7sFNldDkynC0ab1F%2FiNRjBAioL5DOy3nUmgdXnfraiH4n01gByvyAxm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEpyhmeGRaGKirPKqZe1XTJjS4V1kUUmtoxYI1rS5%2BxLdU8zL2MVouyPSzkm4hLxgyctX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUYJPKC0qwKAmE03A6Msdi0yUdJlz8y0WUc675dxTauofZTIAf%2FvImEcW7nc%2B0RRhFxXL7lstEnK%2BTJITeVsmDy58VtteE%2BVT5a1YxMiXsFvZeNdMkKFVLihn4XBLEIfcCaZ6DMbMfU9NkyUmNKB1dtCicl%2BoMqU0Wf%2Bgk0Hb62zxlDnKEYCRWuM6v%2BumiNNtm0dB3DNF1LrGE4SnddXLAUyT262iEkgaZmwIRgcz91RdBPgd6gWW%2Bu9BCq%2FiLR%2FI%2BdBiqpaK713t4h2RB06nn2rVvUV29wDdlmsbE%2BcPbxc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -532,20 +532,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=vIre1XOCPpS5JifbpUigIf%2F%2F%2Fw%3D%3DsSRFMYQDJX%2Ft11SOcL4Cuh%2FGJbszioRqghMb0xNcu0tK0ab1F%2FiNRjBAioL5DOy3nkCtifhMXLE955d3EqSd%2FzsI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiI5U8VVrlTKKqiRbxpC8Cv7u7LE3w9inVpdE6PhlSEtXz%2Blg6uQjZlSUxh9T6tlSN1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCykMzcawjDF4LkZ2rNO%2Bw4PfZTIAf%2FvImEcW7nc%2B0RRhOVTuvi6dmRNw6mQ7RrBz8QFa%2Fnc1XU1uXkSa%2BKHW7MlZeNdMkKFVLihn4XBLEIfcCpx16hIr6atV69HRJZFNcSo3COQaFjpu13pgwon5MwexlgDwqN2NXH8Yskb9FLd5XOBsVkvqSSVz5xulgpLpvbkPtiLv7QLWUW6s36n6SgLm6kxZmZu3Y2yZmHqlTw5Y%2Bj1OP41yvovLiUOid5A8ySVJzfjQBoreXjK0V2epISR</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=QVaNvAxbZWTMuZ3oYt8Ok%2F%2F%2F%2Fw%3D%3DsujQh6Qfm%2FEmH2PFpE%2F5%2FL%2FZwt5ZrVcla4%2F1nHMAl8nS0ab1F%2FiNRjBAioL5DOy3nJ%2FZYoGqAj9zWl69ZTj8J64MADcDcUnkVrjZVgJEaeSJgp0A2w6xz09hFiMdwT3R0gTWgDTxqLVKPCkLjYjg5%2FqAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2Bm3AJF4Pzy3%2Ba%2BusMgY7FA9hXNjelBIUAWs0bW8qKDTtvMInWYTR6iHhAJgcOSbTyXA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCYVmOuOT6GBz%2FGwRat4krnpHWIPqTWLus1aI5s%2FtDJ7JWDdPeGWsAeC%2FXb20Ke2VhL3z63oV9mgPmNBWjRWDb%2Bq5tyXEhEXGrF5uheSa94EZwNXpRuPsuRHQTsX9YIoCVaaMzy4%2BXgIZZ6GtDP1qd6c9YzAKUGDYHGE8laKGdLilTQkdM0LboYsXejH4%2BDq8xBXeeqksJ3UXuK33ZMs%2Fao%2Fuyq5tpcssm5pcj79d62PCRfj4W%2BUZYig%2FbwkUmaRbhOtZUH%2BidabrIb6F1ctGzgp</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>파세코 PWA-2100W</t>
+          <t>캐리어 CSF-A061CS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>599000</v>
+        <v>269950</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>파세코 PWA-2100W</t>
+          <t>캐리어 CSF-A061CS</t>
         </is>
       </c>
     </row>
@@ -555,20 +555,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=BXkcE%2FAHfVmGReqLtV1Umf%2F%2F%2Fw%3D%3DsTJdUieF7J%2Ful%2B%2FNr3OkPzvZwt5ZrVcla4%2F1nHMAl8nS0ab1F%2FiNRjBAioL5DOy3nNOG%2FMn6EaoZ%2B4woIOVhVv8I67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiGxlaZ%2BI9GWVX8s9yh5Bi36CFvpUuQrxd0wEjbLXiNzlKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LMxNBWQ3ZwWqIuOYFYe0JLUhyiRHtsik11tHCdTFWiW4fZTIAf%2FvImEcW7nc%2B0RRhDGgn0y69OOtTYOcXYyFvxpE7h8%2BhXyJ%2BfEDb4Y%2BOSLcZeNdMkKFVLihn4XBLEIfcJArQOcGOAI4WhPFPFkok8JCicl%2BoMqU0Wf%2Bgk0Hb62zKTsy5csn5IBv7DOmHLY9ibHwMYpqW7bqAdEyiFHmmibxTPbuGsUH6R27i1Dg8xIXMjQQvEDoIKpkLkBTa%2B4rNBBZ%2BvTyZjoZoFopjxG4SfzsJalAhyqex6Ya%2BipIGATf</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=dxdQFHLo%2BAbpEOWDMuvS3v%2F%2F%2Fw%3D%3DsrAF5NRThwpvfrzrQhGliZeoTqpeSkKEV3Lk2rx2miHgGPlCOslkdMpHfsxh3dljLB3nm4120iieHRf1rLTLMAxm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP5pBDT9g0vi2eUYP4Mg%2B3npT8hWzr%2Fx6yYt8Yj%2FzlqkQPqw%2FUhL2VFD4bg4IYHHEOffaBn%2B8%2FqlsRs5WeZyyARDdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyxjGKHYM18PQsGOOKjjvcAsRWcc%2BReh7UAkb7Nu2yYawkRZ2nNrIQPdC%2Fu6L3ZNJZ53xHuADmdpOBhTFC2%2F5iFdMdIszrkZvj2JaiK3npOpFsy09pVEvR9IBRyXUvTkcOAhJ%2BmyyrTpe8W6Z5kEbBtsLzLWOnHS0hElDFp6MWh6JcaYLT%2F3%2BTotjLd7rWEDtv8ed%2FZ9ONtrjeXbGr61opFXa0u6G6OHwbvIq%2BGK8djxzxMovoy5ARjLkxiS4h%2BaYC65BSsHVc7qJw81vB98Lmy9sONc%2FWAS%2BMQg8xenUY%2BQbXVcocyn%2FdiGAX99V%2FJuASx6W%2FxBYiz%2BL1RhZJZrLL3xprLk5dFnFt8INeM4tAquLbkgLNTG7uKXf4AoOta%2Bw6ja8DVzOrdyLA%2Fdp5XD3MT6GiZyUeISg1t%2FskX82X1jTtiE1Uz4115zWHG2BgFncdILxQ9eZ%2FZqYp21ZQIy221GXp8RU2AfiAvSam5isIzKug%3D%3D&amp;nv_mid=81820888314&amp;cat_id=50002522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>캐리어 CSF-A061CS</t>
+          <t>캐리어에어컨 / 벽걸이에어컨 / 냉방기 6평 7평 8평 9평 10평 11평 / 실외기포함</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>269950</v>
+        <v>485000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>캐리어 CSF-A061CS</t>
+          <t>캐리어에어컨 / 벽걸이에어컨 / 냉방기 6평 7평 8평 9평 10평 11평 / 실외기포함</t>
         </is>
       </c>
     </row>
@@ -578,20 +578,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=le3pX6lLQOiopTRWdrR%2BOP%2F%2F%2Fw%3D%3DsnzGBoy8QtUTLGUnOzhRCZ%2BoTqpeSkKEV3Lk2rx2miHgGPlCOslkdMpHfsxh3dljLYG5RZSXB699%2FcYwUEovO%2BqkxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJLqjKnRqwP6%2Fgx%2Bfn7Y3xJHAgNrB0P6M%2BHvDLVlXg4AaEs3ZJknzUrN2LXcmmCxXax%2Bw70J4UAQmm3TuQ%2BX1tfSNyQ29mAZUk8gqPsND4WCqHd8gEw9lzl%2BRKFP4AUtntEbpbGYvomUslDXkgI4AksFDfbNedU5ECNpYxrXSRvGNA%2BMuI8sUt3rVKuvWCxn0RIxrcsdmf4xMTY%2F4v2JYU2lnLMsK4yHDeZnB0Vx9JHshcpDRaJxj5Tn9kRzAWE%2FMzoDEdvK1CdNPri82%2FpSkNxcSO5iehxnLKv%2Fgf8c2UWFV0II4Zpqc7N%2FtDsq5HhfcjGr7Z6vwpvekxgwBklMziAUqQ1BWpNr0Nx320Ipyp%2FORTIbfaaz46b8%2FiKkzApoYPs9L4lXDNGS%2BP1UPgCq2BpW6fMx9VaiNsNi1fwXuUWfoaIJ3YByEY6EpqtKGzqvZlT1QX9lIvVVqzmjz7SGNimtYOFjNzAftMReknJIuUCHj6yytH5egE6saB1KhHAsvood1jqKYsyRqFP3SPH1lxjnoVNtqrtaT1HKUwSea%2BB37rGzSWHt97RadxffQ0QiQcXKSHPXP%2FzxvaYr6VciuM4pumQA%2FwVRlMQzKKQscZgVGl6TlF0GVUDfigldVoQsazA%3D%3D&amp;nv_mid=81820888314&amp;cat_id=50002522</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=P3h%2FEdB0MG%2BevC4%2FSXc0LP%2F%2F%2Fw%3D%3Ds43jatVvx2LYyrcUDhNuJEaavqJJ4VCyPr%2Fv6oGOsV1W0ab1F%2FiNRjBAioL5DOy3n6pZslyLO3iZL8JLVfDKgeSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiINHIGvNw%2BJzl2ZduutpxSs8OBcVKJRnSh2PQo%2Fsn1l8zrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwADNkoRNwGh%2Ffuz8edzBTgiL59sHIDW0QmdCB3V%2FLmm6HiKrkXLEzQ35Efw2%2Fe%2B9ifgj4ONopn%2FqOERNRXrTiQGWjtTV24JKUwcnZBv8E1uiCgMLP2lbrlvZXXrLat1h2aMzy4%2BXgIZZ6GtDP1qd6cDFXWwEmQmbUjmB5ezCcxbz3QKRPW%2FWROiSsJBKW8Gcl8bVKivxgxrbW%2Bq5e4ZemRpqI7UiTcmFdHJovuhA4jZmgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>캐리어에어컨 / 벽걸이에어컨 / 냉방기 6평 7평 8평 9평 10평 11평 / 실외기포함</t>
+          <t>삼성전자 AF16N5779WZR</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>485000</v>
+        <v>1627990</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>캐리어에어컨 / 벽걸이에어컨 / 냉방기 6평 7평 8평 9평 10평 11평 / 실외기포함</t>
+          <t>삼성전자 AF16N5779WZR</t>
         </is>
       </c>
     </row>
@@ -601,20 +601,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=OP%2BleZJYuhTgpRjqG%2BEc%2B%2F%2F%2F%2Fw%3D%3DsxXrmPrB7f9b2yvr2%2FSN%2FbRjRuOja59lQK7peYkawszKxvftOu908Nr%2FUHPIPW%2BdxLv6vGa5j7we7mdPQwu1WelEmE7ohMZQuLqkxi4E1zPBfE1ncdvWbRJ7oekfQB7QzlXb8GW2qpXs%2BsuKWS%2FEc%2BU2Aor3SbsBTEsynuMdRXOh1Vb1XzKmjD6Idarsaoct0Q7Jqr3KfAzDa3y0K64%2B7i%2F9F%2FJtN81oYertIQa57lP5kVFkkBII3UGaOyJReq%2F0Jge3pxvdjYMQtuOw%2BHKc%2FWMeseGcEU1ykTGtBBwqjJSYCgANVHBGbxS07KO7OAv40mK2E0zbR1Q1slY21aEPEsF%2F0kyt21OEL1dzemuY%2BTlFjOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBrfKji7V31kKUgcKfbRbFTLiL59sHIDW0QmdCB3V%2FLmm6HiKrkXLEzQ35Efw2%2Fe%2B9ifgj4ONopn%2FqOERNRXrTiQGWjtTV24JKUwcnZBv8E1uiCgMLP2lbrlvZXXrLat1h2aMzy4%2BXgIZZ6GtDP1qd6cDFXWwEmQmbUjmB5ezCcxbzxxM8Zn0jI5zQz9pNvYVZZ8bVKivxgxrbW%2Bq5e4ZemRR0YSYj7JEK7Af9TUShKjr2gJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=OaavMdUn2ejAqsUD%2Bhn81P%2F%2F%2Fw%3D%3DsPLshf%2BCRK%2BNpg8BN4cpd2Ng0bZxUzcQb71IP2MBXtFa0ab1F%2FiNRjBAioL5DOy3nTj5gmgEiS0Rq6segaXIFiCvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiAYKU%2FOsJVnvi%2Fk9hynd1GVKk3wXCUlP79qqh8t%2F3bNuKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LDUEaER5Vk34MTdXyJlp45Rujw6hKux6oM1afT%2BoF4svfZTIAf%2FvImEcW7nc%2B0RRhLPJFrxxJLkW63dQzLmWEWm25jqg1VzN32AA6aci%2FtuRZeNdMkKFVLihn4XBLEIfcFLBEEWAGx%2BWDbLRQJfIAxFCicl%2BoMqU0Wf%2Bgk0Hb62z51OggIH04nnvsnhaNUcQnTCzlctxcrfsZDJG9FBCaKm4MbUxdh4GeSGL6MKyXzD6eFdQegt1u1apb2RHGvelLCQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>삼성전자 AF16N5779WZR</t>
+          <t>캐리어 CSF-A060CS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1628000</v>
+        <v>298940</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>삼성전자 AF16N5779WZR</t>
+          <t>캐리어 CSF-A060CS</t>
         </is>
       </c>
     </row>
@@ -624,20 +624,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=FYTcmtjNF7bPAsOD3Wyyx%2F%2F%2F%2Fw%3D%3Ds7CHo5Q2xli%2FoqM1vBRwMRZob44eHxwoI7pZK3t2atD0GPlCOslkdMpHfsxh3dljLnEP7fUf391I3bqeQ7fKx2cI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiAYKU%2FOsJVnvi%2Fk9hynd1GVKk3wXCUlP79qqh8t%2F3bNuKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCxnrk48XRjVfprYdIhLj0NARBsd1Czx%2B3ZZckFy1LL%2B863CON6T8D5A1zZSigmcSyv5KRaDbfpILmZ5RPDVH1VaFQf3fWMMiI2zxb2SmvXsoX%2BytON6kxYoKjNZPxjHLZ%2FPONn%2Ffb5C3ZkfQ9VBfRKuDwPsLyI5OJCNNYFSKgjGdeUJnF81BY%2BJo7S024nKhvbbF0nZUCCqpPnBNckc0aYJFBu%2FxzlaanNo8zWepV3Kf4LABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=wfL3BDhOZGimt%2FrI%2BdNiBP%2F%2F%2Fw%3D%3DsiEJcevpZQmS%2BN3UefB9uYenTLTuVACwoYPBZeLPtJQO0ab1F%2FiNRjBAioL5DOy3nxdOOxfxUu7MSqSkCxVQiCSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59ESIubQx87Eao%2BbIHclg669CCTxEYumlfmS0CSfIhc3rQAUyn%2F62C8tm7Y3NLb%2Fsc%2FRRbfbTSifWETSH7NMAXDClTx9VSpJJlEGsO5qLSHR%2F2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmA3zZs8tOac%2FsBqMOLvcnAVKoGz4MqSB%2B%2FJS8RCo7LYJXSQpS5pMmVbHQ0Z2gc7zatX8Yg63ExFpnh7nX%2BeH1U6IXkksmPcIoDDTTmRxaUUhR8Q3L6%2Bjen9idM58DLjY6C4xVt38bM4HXn%2B2x7Py1hm%2FvYtXQ1oh11ymEC%2BOZbub67ogcilDO1nyewcn8L17qNa2m0XhSf4nZQbYbA7E3OXmATmBVzvoV1WRwNHPO7XS5BSsHVc7qJw81vB98Lmy9sONc%2FWAS%2BMQg8xenUY%2BQbYkhaONVms4AVZC9vCa93NFCyw7Hh%2Bk1L5paFQYGrOsxGONkip%2BRtr62XZ4T2zwO1QOxA9NkYDHjJKJObSxiqN%2B0hTi5xefHt9AzBgCS7emwMVyfj5gZuDEl6YBUkJA%2Ft3KSHPXP%2FzxvaYr6VciuM4pFma8B0emPEsNqTmqfyXKJN1%2BSR0cQde5HUknktbgjpw%3D%3D&amp;nv_mid=81262641929&amp;cat_id=50002521</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>캐리어 CSF-A060CS</t>
+          <t>캐리어에어컨 스탠드/멀티형 [2in1]냉방/냉난방 16평 18평 23평 25평/실외기포함</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>298940</v>
+        <v>1240000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>캐리어 CSF-A060CS</t>
+          <t>캐리어에어컨 스탠드/멀티형 [2in1]냉방/냉난방 16평 18평 23평 25평/실외기포함</t>
         </is>
       </c>
     </row>
@@ -647,20 +647,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=TJpCcFfqaOv9ybgN8Detzf%2F%2F%2Fw%3D%3DsQtj8DUdPZGOTBBMiX8%2Fl5TK2jVe2zt8OMXGPY2qkdSKxvftOu908Nr%2FUHPIPW%2BdxN%2BwElWHczNcHsedaK363Q%2FnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSclkuMqcg6YNoQAy6BDIhW0R%2BFkNMF%2FvIP5bdokZmLiuYS3fc7ODFnxAOyfmpJR13JbLE2To1psKs8cZKEIgJgZf9JMrdtThC9Xc3prmPk5RYznLBM1u%2BQNSrjTdvceuY6%2FVCjt8zcn979WGePkmNB4%2B9HlLcwcwL7lf0hB9OqQaBm7vj1JRyXBfB2%2FPXC74VwHCYmIvikCTGNShF0B6fCCUg9atk1zTHH%2BrQ5e0U9oiHwZ7ij0lK2iJg0mGFDuB2T5cUB%2B1Gi%2F7l34S7iW7xWkm0jrN4KM6BYsFN%2FsPXsub%2FasLMPbV%2BRQiaVmwsjy5wdmoYpUHzN%2FcF8QI7bivAtkVcUJh7gM6PiWQEWM7L%2FzCNdOi7e6vyVrdcMlzY11NXPruW9tAhTc%2FEmFLnmC2i8TPslE2vGARle8ofXcGLoBcc0YNmcO60%2B%2F4Mr7Kgc7pvW435WFs0PxpYzYv7aJz76U8zrKr34cEzctz3UPBQADE5yNwkvQfsKYqP4me734qX9Pvs4aXm%2FjTDDWMNDE3R%2FxCqw8nyiFdHcLQ84tooKnd5XV8sFYTbs%2FX6QunksGF7Ud31zcM%2FCB2SsBt258iS5x3Jj6C1r5W7XqasFulMYjEl6TlF0GVUDfigldVoQsazA%3D%3D&amp;nv_mid=81262641929&amp;cat_id=50002521</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=LwEDfdSaoSQ%2BWY6Nnngt5f%2F%2F%2Fw%3D%3DspCf7tNCD2WcKlLgrI1S3TuiQEIWhAA5F%2BnHn%2B0j6nn8GPlCOslkdMpHfsxh3dljLBfNtjjjMAZc9htd7cJDhHyvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiMKPna5AlEJ9xqqKhh17OjcKm%2FpUApa%2Fde7zqq2m8amUW8LTblGb7LYgM2272ZMEAVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGTe0oiP6l4Gb5KyB691hL%2Btei5hgbMpIz%2BzlH4t5fQXfZTIAf%2FvImEcW7nc%2B0RRhN73DsX2DSffHurHmL3eUF8OSI%2BDuI81jnSt2CKuMgp%2BZeNdMkKFVLihn4XBLEIfcMqrf7XtKnzrKc3hqlyfLPdCicl%2BoMqU0Wf%2Bgk0Hb62zKvhvVr5Ck8vutKeI0dAGrGWxB9Zx%2BSOCDPwFs8dULnAtXEACTAtseDfo5E78olLFvxuaxDlqbuEtaG2uqzXXiCQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>캐리어에어컨 스탠드/멀티형 [2in1]냉방/냉난방 16평 18평 23평 25평/실외기포함</t>
+          <t>신일산업 SMA-D900NE</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1240000</v>
+        <v>400340</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>캐리어에어컨 스탠드/멀티형 [2in1]냉방/냉난방 16평 18평 23평 25평/실외기포함</t>
+          <t>신일산업 SMA-D900NE</t>
         </is>
       </c>
     </row>
@@ -670,20 +670,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=kCLIk4PmCQZUN5DWsj3UBv%2F%2F%2Fw%3D%3Dsp41t7X8vrsZQmN0buzhiRuiQEIWhAA5F%2BnHn%2B0j6nn8GPlCOslkdMpHfsxh3dljL7o4WI6QIfk7ofcqHAM8s3akxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0ZaRyyO73HvQMwcKv7LrQyj6PqJqPCkFjjNR%2Fzkeod8Omr2%2Bb%2FDGe7M1FT%2Bge8tLT6NRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk2J5pLj7Uu1x6QgEwH27%2BDXi6unS1nfv5Bt8AjN3WZfRsKHtyr%2BZRApgMpd7sR2Vq%2BP%2BRst6%2B25CjN9bjJu7wOo1Eq0FLk7xIiT9GMU70VgFZWiwjBY9r0qa3Wd56KjdhV1kIW3HmGYKFlMruzgQy6%2Bo3COQaFjpu13pgwon5MwegxHQcEK%2B19uq2pQ%2FClYk6ByOgAfgnsLn7dQQJhfkmeqoJWV7cTgD7pJYM9ycWydCLfqg8gruCAwavR99iCQXOHk0%2F3%2BBjWoXlZBcxRYQH3eVJzfjQBoreXjK0V2epISR</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=mLHjepimPh79%2ByC7lMlV9f%2F%2F%2Fw%3D%3DsVeLpFAFD7%2Fc%2B6396y8wWdyRl6XUgsUaF%2Fng7xJIIJggGPlCOslkdMpHfsxh3dljL134rooqECz3J3zKd37Bkwxm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEpxeqQqtnrExw%2B0UUcyHMxEtWBkVqpnNLeYHynrovGrgzvKc1dsXIed27HhI7TaHdFdX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwSHgtHIpzvrodrt%2FdCbQKrKifJMaSZJFLcphubkcXPYSu22TAoPSWJtPUDlUcIn8syTJGRNLmdRQGkFPXYv9%2FCocykMTwSErU%2BYb9oakc3TKLn303qyVLoMTlPk%2BmtQBMDTYF02%2FH2yPmunvx6K7yOc2dQYLiKfTzoF%2BciM%2BWOhS8fz6FvirztlvCrXDV8pCQShdFcnSajHFjsCbiQmLPB87yLWENOIjKI3yOf0%2B%2BAwRwB7fIjYeKsx4bhtq9OvF58ORooLqAILjxtQVVkWMZb1R4aF1qnpqjy6d99jCWwI4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>신일산업 SMA-D900NE</t>
+          <t>캐리어 APA07JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>400340</v>
+        <v>344890</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>신일산업 SMA-D900NE</t>
+          <t>캐리어 APA07JK</t>
         </is>
       </c>
     </row>
@@ -693,20 +693,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=DZoo6C%2Bx2IGJVaEREzVF0%2F%2F%2F%2Fw%3D%3Dso7mDs1K0BoLoUdW7R6qPpiRl6XUgsUaF%2Fng7xJIIJggGPlCOslkdMpHfsxh3dljL9lN05gL0hn4CmHafe5Wqd6kxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0X9qxFambPj3UKl0xFW8WT9ZM%2FWnHsGyvQlxTGxNUTaWmr2%2Bb%2FDGe7M1FT%2Bge8tLT6NRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRkyWBt%2Ftn7bYyyYVR4nP1Rfk%2BHoYDKAb3MRYMqDehJb%2FysKHtyr%2BZRApgMpd7sR2Vq49Y5u5lDqTP0%2Fpe5RrV3ID4A3ZbTfBy9p%2BhTIRED7kaZWiwjBY9r0qa3Wd56Kjdhcv2EpMmPdNNGWD2M6nc3OPXThuIzaqwRopzifzKbeVbQkRz7VgRfRloCnU9kSQ4uZZBRlrdebDiRyWoegxLBURLKYgl26oTGOTnadRQywb9zr05hVTZ9P5rK9B5t8ByfAlnSznB2%2FvpaYTNA1KPbzUDHe9Nfe8DY3mLC0erCQPo</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=j4fB7s4fhJomThHsdzqueP%2F%2F%2Fw%3D%3DsjxYm%2BGakDPmjRK3jC80zjGos6GA50Ue%2B6hhhOd%2FEZCS0ab1F%2FiNRjBAioL5DOy3nseThAfx2AOahL6a0OW%2B9pYMADcDcUnkVrjZVgJEaeSJgp0A2w6xz09hFiMdwT3R0gTWgDTxqLVKPCkLjYjg5%2FqAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BhSgoFFLOqp9CMi4%2B4D7CtGxQNSqg4%2FT%2BJJ8eQXyEx72vdr%2BlLHPzmyLhjwAYutAOnA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCbUqGnS4H%2FpfR9kCARh%2FNi%2FHWIPqTWLus1aI5s%2FtDJ7JeSEUh9yRkrgIqSG0SMNMeRs3T6im9YgmGY%2FFdBYE9a45tyXEhEXGrF5uheSa94EZ74LD2%2B%2Bwqm%2BV0GA8YH3uhb7ZwgLcmkjJaIEeJWf%2FjF8s0bBVa5MzRbk%2F7AzRfCVhVcm0JEI7g0KZIAOyxRrWXB8k1Rf5uAgZRe0gclu%2B%2BoSM%2F%2FLK3Ba5lkkcqyNPgzQROhf8cXRe1uCABz0SIXua5Ae6yvlD80qgSZhMC%2BQCzrS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>캐리어 APA07JK</t>
+          <t>LG전자 휘센 FQ17D9DWC2M</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>344890</v>
+        <v>2289990</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>캐리어 APA07JK</t>
+          <t>LG전자 휘센 FQ17D9DWC2M</t>
         </is>
       </c>
     </row>
@@ -716,20 +716,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=hB8OoKMvDvtTJJEKdevvFv%2F%2F%2Fw%3D%3Ds3WXo0LAvKAdA3H8FRyDg6Gos6GA50Ue%2B6hhhOd%2FEZCS0ab1F%2FiNRjBAioL5DOy3n%2F6MYWwgi1MC6%2BA3LNf%2F906kxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0U9F2qMq%2BGJDNwS0a5pxrGO4DmBpJB7HhbHwPndKXl6jznv%2F4BYu%2F%2Fz30rVWlqnO26NRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk%2FiDz%2BkO%2Bf7OZhAi654pt9X4ckZws9g6TBcPPMPdWQhBsKHtyr%2BZRApgMpd7sR2Vq8IOzcBgKgWujNZSsg%2B9zcQLWZsA2c0CqKtp7aDcst9yZWiwjBY9r0qa3Wd56KjdhSZ7lnVq1lTIwszGees8CYZCicl%2BoMqU0Wf%2Bgk0Hb62z2xtWti6%2FIhFcNUnOrkgpWRO3xw81i%2BrJWBv1iYthE05dLjMHA7Lt97Z9Cmrr20VUpOQmrq12Hq%2F8PHNeSZBJUYLABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=2y1D8mas60Tp%2BxUrlNJpy%2F%2F%2F%2Fw%3D%3Ds9lNtmKFn616uQaZe%2BiclKF9AFTfhSt1TGIV1MsgQ1820ab1F%2FiNRjBAioL5DOy3n4z%2FhVDKt5AoswssT2ieBeCvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiB%2Befa2Z59nZB6zr5b10uxYTz9wyrhNeJU3wJKauakkmKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBI1TCO9BOq%2BgyfqAc6UvXz7iL59sHIDW0QmdCB3V%2FLmm9q3Tz7Z%2B9EvFs6ZB6xsNHA3Y4o%2Bm4pC3avk5tvz%2Fe3oGWjtTV24JKUwcnZBv8E1uvbxFLCcv4hIKSyFIz7Tll7PONn%2Ffb5C3ZkfQ9VBfRKuXvaIcFFvoyJF%2FtfwRD41MLy%2BAfbShZIhODdVypAutq7bF0nZUCCqpPnBNckc0aYJW%2FBZ7KE2DJCkhv4ExUoYiA%2FO5l7JOKquWHx3ssFss5qtZUH%2BidabrIb6F1ctGzgp</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17D9DWC2M</t>
+          <t>삼성전자 AR06M1130HZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2263990</v>
+        <v>375940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17D9DWC2M</t>
+          <t>삼성전자 AR06M1130HZ</t>
         </is>
       </c>
     </row>
@@ -739,20 +739,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=xp9rlFsONhw7AYG29LcBjf%2F%2F%2Fw%3D%3Dsjdo0S1%2FGR6taYkotW8yz7CyxyBdwUSohcTpzRbZBaQaxvftOu908Nr%2FUHPIPW%2Bdx%2B4T17QcrzV%2BDBl1i39fo%2FvnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSaAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BmeL1rdrLV4hebVJEtuC8QXZbaEzbDA1rWUBB8Iq8xiYvMInWYTR6iHhAJgcOSbTyXA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCY%2F%2B%2B%2BxTqjjXqOI31KdDS58HWIPqTWLus1aI5s%2FtDJ7JWDdPeGWsAeC%2FXb20Ke2VhKOXMSwqUNTALHZmEd0b6n95tyXEhEXGrF5uheSa94EZ2u3Dxuo4GQ33UNFcJt8ckz7ZwgLcmkjJaIEeJWf%2FjF8UkaMJig7L%2FlJHI%2FoGn1DoDTwLl5VrymBOoy7JDRuL898bVKivxgxrbW%2Bq5e4ZemRRflp%2B9JimykQHEG2n0B%2BF%2FTKHj4YMkQMoQqsg17BWAJExKGm4vcfDBoyJNqPftxm</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=vkwPZNH42wkJiLsacNmAUP%2F%2F%2Fw%3D%3DslyVo%2FqRtH8QOPF%2B36n%2BxApPflQegMhcG6Q8w1EvTV%2BG0ab1F%2FiNRjBAioL5DOy3nqM1EcE%2BniEYEz5Zw98iVnCvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiGL2BKAsfe3lkBo3uzzg8s%2FD9bfPCWDbaf4Ww3SAcOOCzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBLYjnr8peSFoR6SJe5VFRsxiL59sHIDW0QmdCB3V%2FLmm0l2b4IrBxApxUPM3szH7qVK1H%2FKD7fpT5eh0Bu6SyE%2FGWjtTV24JKUwcnZBv8E1usrxYY18lDFwVuroc6ZeB2OaMzy4%2BXgIZZ6GtDP1qd6ck3LhIvjgOc5aHVfibsUEjWt5pL11sXyzBbvi12V8enp8bVKivxgxrbW%2Bq5e4ZemRCSr60edMtRlC9ryoDaEZOfTKHj4YMkQMoQqsg17BWAJExKGm4vcfDBoyJNqPftxm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>삼성전자 AR06M1130HZ</t>
+          <t>삼성전자 AF17R7573WSR</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>375940</v>
+        <v>1999000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>삼성전자 AR06M1130HZ</t>
+          <t>삼성전자 AF17R7573WSR</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=8OpzpNz9hnixBKefWJ2L4f%2F%2F%2Fw%3D%3DsfFaqff21IWOeP%2FnhCf92sfiyh4Uq9kO4py9Lkq8nOcIGPlCOslkdMpHfsxh3dljL2GwTYDVP0AEXl2AoYuwGfyqSOZO3b2DP9ZTRwpwjBrjvItwAIfwnOW8QmSEoyFZ2fDKz%2BrEFdijMnBpzQ6uoHuGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp%2Fb0r50CenUPkQBS2jtTwZTIZvRvY45LBIO%2BAt73LfmEb6xbB6g%2FrzIQNMUNBWyRGdX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUgW%2BfG4jOmYoq%2Fv41oLUx7tLcofgHhAFqQiCnB1DvFsiL59sHIDW0QmdCB3V%2FLmm0hayJOgMjEq6uyMQ2xaJQJmE82gu68yY4dRYy0Ll%2BcoGWjtTV24JKUwcnZBv8E1um%2FiOcWfvvu%2BNYnQDD3%2B72%2BaMzy4%2BXgIZZ6GtDP1qd6c7UrFLd0ibwvhuOoRsNEwdWysVSUYrjVBrVd%2FU%2ByZiiF8bVKivxgxrbW%2Bq5e4ZemRiXr001WdNL2xHlhubqNc%2BvTKHj4YMkQMoQqsg17BWAJExKGm4vcfDBoyJNqPftxm</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=Se6dDhTiG6KUzoMJFgB6vf%2F%2F%2Fw%3D%3Ds%2FM2IxZmIRgGBcn%2FULR72IJAGE%2FOZzTcHrWDeDJrEqV60ab1F%2FiNRjBAioL5DOy3nQN%2BmH%2FUFdDcQRj%2Bv%2Fxftm4MADcDcUnkVrjZVgJEaeSJgp0A2w6xz09hFiMdwT3R0gTWgDTxqLVKPCkLjYjg5%2FqAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BsDd6e3jtawx9G%2FPt2S4OkRDAmUbspFT4IDorNlLcCmvg8J96Ri8%2BhSQgy1CQPIHxHA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCa8S4V%2Bhydpk1srCoaVYMygfZTIAf%2FvImEcW7nc%2B0RRhHO33CUJ8ldPzxL6UOF8GVQi3RgqPbpqQj5fbexVYi%2BVZeNdMkKFVLihn4XBLEIfcKVW%2BFWd1uvvC5vk4xHhGaDPONn%2Ffb5C3ZkfQ9VBfRKuWJAOJF4TxnybLJnAbYYgie2mTZmnkX87N9hOr4Es88JXeeqksJ3UXuK33ZMs%2Fao%2F94K4%2BoV8ly6fMZzbwrbOrWgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1712780</v>
+        <v>1674310</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=i1PcIuT3t%2B8rtyzoMdzKu%2F%2F%2F%2Fw%3D%3Ds54j%2B8fGjEGNXKoB%2B7apXMsNhwWW2M%2B24Gn2FTVYInEC0ab1F%2FiNRjBAioL5DOy3nyLTLjnqCsfkw0Mo3NBxe9cI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiNo2a%2F5k6mYGal3WC6li7xxTD%2BpT5AZHDx34k7uFAT4qzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCxa19A2QdqhiWR8hlM2mvw8iL59sHIDW0QmdCB3V%2FLmm2tcXu1tXGzrZHVmu3eMkCXmf5syHoU3hlhKfAAQPsnVGWjtTV24JKUwcnZBv8E1ul5Dki1lvg6eHtsLUFA1%2FfXPONn%2Ffb5C3ZkfQ9VBfRKuTDzCItyxiWBaqIPg0c5Vaw1EBuLv6cflv5woK1wSAW9XeeqksJ3UXuK33ZMs%2Fao%2FYU9k03njwh01gSm1T4JtvWgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=IvQd6WIPik2NFN1gLdkxtv%2F%2F%2Fw%3D%3Ds0ehcd3yvITCPVfXl8OTjRE7MnT4BGDJHxo7ws0IjraqxvftOu908Nr%2FUHPIPW%2Bdx8FDTlfsThF2a1otbxqZDxSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiNo2a%2F5k6mYGal3WC6li7xxTD%2BpT5AZHDx34k7uFAT4qzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwnOklfoiggEXxbzjgX8ECBiL59sHIDW0QmdCB3V%2FLmm2tcXu1tXGzrZHVmu3eMkCXmf5syHoU3hlhKfAAQPsnVGWjtTV24JKUwcnZBv8E1ul5Dki1lvg6eHtsLUFA1%2FfXPONn%2Ffb5C3ZkfQ9VBfRKuTDzCItyxiWBaqIPg0c5Vaw1EBuLv6cflv5woK1wSAW9XeeqksJ3UXuK33ZMs%2Fao%2FYU9k03njwh01gSm1T4JtvWgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=RJGS6Fflzhni0TxDocfhxf%2F%2F%2Fw%3D%3DsTeNIdQVCabu5n%2BySgY%2FdBfgCFeF7kwHRMNl1UNg%2FM%2Bq0ab1F%2FiNRjBAioL5DOy3nCq3sZlK9ikd6MqIFRddqWsI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiA5JtvIMVloR7hbgi%2BHM33U9I8q5deTkRqQsCQCkds5uz%2Blg6uQjZlSUxh9T6tlSN1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBKf6f06Jpfv16FJynWiNV4ciL59sHIDW0QmdCB3V%2FLmm2X1LUnEaD2wf0V5yUOwEZV9RQGolPnGjiU4rfc3NTsDGWjtTV24JKUwcnZBv8E1uojqMMsrKkS%2Fa6Yof06hkJZCicl%2BoMqU0Wf%2Bgk0Hb62zu7lurs1vSYl2xRzAmCv3doxPj3K6ltuhPpxzE91eZazraf6UNlf6fPxWYnmm1DwI%2FofloYZp5Wj6mZ1Y8k9HgWh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=sO9kkd8yK8qXLI9cI9nbpv%2F%2F%2Fw%3D%3Ds9O71LCri6wOn3N2suqJ3o%2FgCFeF7kwHRMNl1UNg%2FM%2Bq0ab1F%2FiNRjBAioL5DOy3nl0UgwaWLqZ%2BBrzIJlxZvoRm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp52WUSm%2FmrLnlAje%2BwbECeOhgI9jx4fIrKbr58gx8qYXK4xMK0bsh4GnkrU3YljcQtX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUN9s151TkQI2ljGtdJG8Y3V7r01nTjvls9VoRW%2BQrCofZTIAf%2FvImEcW7nc%2B0RRhEhE%2ByYfyBMcIHH8tLk1wJznIVvPMQojmUQ4wy7uw85NZeNdMkKFVLihn4XBLEIfcGYZ8WKm5QO%2F0TXEbJQgLQuo3COQaFjpu13pgwon5Mwe%2F063IrP5uotBKk5tYmHJBk9Zlrhfis%2FSc9TKWSzcn54a8G2Cmg1BXxfpWXeMbiD72oIK6WVwK6RKi24QuMdMJCQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=OAtdPKJHhlgzpL%2F%2Fv81fZP%2F%2F%2Fw%3D%3DsATPgcGnh9KP7BieHcHpgUTj%2FHbpZJX%2B8yQ47lcMgsLi0ab1F%2FiNRjBAioL5DOy3nqwXkxzC2OT8jk%2B2lLSGnwvnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSclkuMqcg6YNoQAy6BDIhW0R%2BFkNMF%2FvIP5bdokZmLiuq9VvG7NMnJaNHiEsoXStBHO%2Bj8fMh6cjNvi9ACn5irNf9JMrdtThC9Xc3prmPk5RYznLBM1u%2BQNSrjTdvceuY6%2FVCjt8zcn979WGePkmNB4%2B9HlLcwcwL7lf0hB9OqQa5EVRGO61fhjQyHJHAr28odHXJYCHqpHMVMRnGJKCjger92rvrcWGdBAAfaZBU%2FesoYjXwiRsmBFuuOwnWO%2F%2FDH1D9P4%2BOoPExUuSk3BVHX1Whszwy6bWGp%2FDkb01u8%2BEVUAF8nFPgyCfl6n3B%2Fb5jr%2B5ykBsCio%2BSfQlqyXrX4YkciZ4wHJMXUE9I2MLMtR83g%2FOhkP4EkTc%2BSH0Ve39Fif3eaAyVCbVtpElx7uC4abCBmpv2%2B49wRdFuOgMRqWIvVR3LCQWoZhP4CLx6lahg%2BS6yh1YTto%2BZv1yiW7Jgqalp5D9q1KV9OdOXHBmMqMbj2V9XtKgGbaOhDND0xrM6oLABVKTK8pIwjgadDRzX8fl2QW1AY6Y1LljJC%2Fjf2XTCEFXshdKqMH7NvxV7bp%2FyQ%3D%3D&amp;nv_mid=80466601436&amp;cat_id=50002527</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=6j%2BeVWuVCumh8CvK50ZKrf%2F%2F%2Fw%3D%3DsEJetYOlSNkY5r94fjIaixn2gMmEAV1LiyUwclpGq4f2xvftOu908Nr%2FUHPIPW%2BdxArDlyyaTEzpfXmJkyQ%2Bj2IMADcDcUnkVrjZVgJEaeSJgp0A2w6xz09hFiMdwT3R0gTWgDTxqLVKPCkLjYjg5%2FslkuMqcg6YNoQAy6BDIhW0R%2BFkNMF%2FvIP5bdokZmLiuq9VvG7NMnJaNHiEsoXStBHO%2Bj8fMh6cjNvi9ACn5irNf9JMrdtThC9Xc3prmPk5RYznLBM1u%2BQNSrjTdvceuY6%2FVCjt8zcn979WGePkmNB4%2B9HlLcwcwL7lf0hB9OqQa4eceSWe8fqGGazCzJn0Tb40g9haq2cyru0gmjosoLawjOG%2BVy2e3ON9Qi6B24WbiT5P6VDYonohoVQ8W%2FV%2FziOKDut8JuX94UdNdbf5To0mmD9Kilxm6e2moW%2BnGiXz%2FK6SU19jsiJerbqbI99E4AY49ThRCGKN5yXt2KH%2FEvDmA8%2Bi6eBpemeVxq3fPRiRvP92yoY0kLHNfD8BTA%2FMgBI4ygbuNekMD%2B2lrAT%2F%2F3NjrXkZOKSPD%2F9WYr8vvijbBaUoAeMWVjmudv6BilGHbX43QWW5KGTt6Tnccdkg5xIF45tJFKsZosTNs3BdVff0vQTP7rL7D7HF79oJ4DOTZzCQRGRiBVC%2B3n1YKj4%2FXyK09Q0BEkSZainuPi7BnnbpFuVr7P5DLjY4onSl5Z30uGA%3D%3D&amp;nv_mid=80466601436&amp;cat_id=50002527</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -854,20 +854,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=ObDBWF1RHWkQ6hKmHB2JAf%2F%2F%2Fw%3D%3DsJbaOTpj96Lsp5pK5elaEpejLfWBU6echNWln478ttBcGPlCOslkdMpHfsxh3dljLj2tYtTgHsLvoSdiBoS8ql6kxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0VD542Mhsk%2FuBdW6pzsQM2rST8wwiVVKfl71AWZcPMGFZzw93dzre2kk2Wg2OcBGOqNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk1XIvYJQcqj9qsx4NkXQZy%2FollSToqz4tTbd1Gqz7BrgfZTIAf%2FvImEcW7nc%2B0RRhP1JM3op5svN0x9pds9zBA0z9jIvvBhrJG1jT4B4eKlQZeNdMkKFVLihn4XBLEIfcP3Q4TaztPo%2Fy18HTFtCGDNCicl%2BoMqU0Wf%2Bgk0Hb62zmeNu9AqqyDJhIf5nQRVEVJKkOkbEdHdIhd70L%2BELImULiLY0i5L1pGSrxnp0hGtNnQS%2B3W97Q7kdP88qNt0fGmh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=w3PSfsa5SqtqZd2FOZBcVf%2F%2F%2Fw%3D%3DsUyrv%2BAwChzieDO148fsHRQrP6UTDLtnW7eKPDLK27J2xvftOu908Nr%2FUHPIPW%2BdxM6PgkgmVqdkttM%2BvQ0rEcyvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiL88OrRgaA4N3HzwVxja9Y31P%2BPDzZrT1eikHDmjO9qrKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LHRmklSXkV5q%2FdZzDfbtEFloigFMioJCCbWaeBBTT%2Bg9fZTIAf%2FvImEcW7nc%2B0RRhCw8qylyq7iuY%2FTUKsxGAy35oyGbJyk2TzaHj0FXzbxpZeNdMkKFVLihn4XBLEIfcLWnfs2EP3CsnxoY9gEHBUpCicl%2BoMqU0Wf%2Bgk0Hb62zvsGWCu0%2FD8b5b5CMC2ZyTAf%2FB%2BeSEGQ%2FATVbmRjfBo8LiLY0i5L1pGSrxnp0hGtNeVu80x2B%2FddAh2D1%2FdERU2h%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ06B9PWAS</t>
+          <t>LG전자 휘센 SQ09B9JWBS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>746390</v>
+        <v>659980</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ06B9PWAS</t>
+          <t>LG전자 휘센 SQ09B9JWBS</t>
         </is>
       </c>
     </row>
@@ -877,20 +877,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=uyweHrQEdKbd3TkPT%2Bxnof%2F%2F%2Fw%3D%3Dsy2bQUu%2B7Cl9qB4hf22JsLWevVNuk%2BJHkpxOzMUVh5iC0ab1F%2FiNRjBAioL5DOy3nkjNB26I8bo%2BrWe7kc5mpzsI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiLKZol25YuHyX5uuUu%2FoskFtk93dpPUHWo5ziB1wrCS6k%2B%2FD78m5vM35zm9aIEduG1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LOBRJCrsdb66227MTxzMqOiZkH8KhUpi%2BhT4fxPw4PNKsKHtyr%2BZRApgMpd7sR2Vqx8z3wwpg9I%2FvGGN8YE77sBiH%2FZ3oz9JvbC6ECxAF4SBZWiwjBY9r0qa3Wd56KjdhbY300gpeyht56mRDKOqdBmo3COQaFjpu13pgwon5MwebZBLomZK3PuU6qJKYFAaoXe68YhH1bDS3Fdzziwoctfinx60p5wU%2FwsqX%2BAGP4JaFMfSPGpcv9oHNsaoCiXGCudBiqpaK713t4h2RB06nn2rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=v9q6LZejDXXNpcTL1vv79f%2F%2F%2Fw%3D%3DsC9NmIjqJ%2BVexXGLQRCvb7OjLfWBU6echNWln478ttBcGPlCOslkdMpHfsxh3dljL3nTcyOi7RznTlrsHqwGCkCvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiN4bLF45t4%2FMu%2FnyAQg8CHaf%2FpBxpVVbQfuUnQtb3L52Khbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwE%2B%2FRMCltxpVwrBPQK6X13iL59sHIDW0QmdCB3V%2FLmmw5bdz7Oc1qnJjzISBxZfAca%2BTwtBouPqefcobRzx9SrGWjtTV24JKUwcnZBv8E1ut7CPZ53xHKvQC4wo8ElfTjJFBPspEHZmmDh3CnKLM8ok67%2BW9JN867S1klrmoVOY1%2FPEAw%2FgR32GqwdFdoi8BtdLjMHA7Lt97Z9Cmrr20VU8ha5tUGRuZWt95jM76F1E4LABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V8WWJ1</t>
+          <t>LG전자 휘센 SQ06B9PWAS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1220190</v>
+        <v>746390</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V8WWJ1</t>
+          <t>LG전자 휘센 SQ06B9PWAS</t>
         </is>
       </c>
     </row>
@@ -900,20 +900,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=oBIg5G2EmhziWnBacuYHT%2F%2F%2F%2Fw%3D%3Ds2LFKdKtstRICgKk3aNqB6XyhglZJ2igAX2cKbVYoVEIGPlCOslkdMpHfsxh3dljL1oUpl2as%2BYL56J7bGJI0AcI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiEb6fYReKN73bkBUpQq0%2BzYrjRxKY6oEtX86OuzePsUgk%2B%2FD78m5vM35zm9aIEduG1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCyR3sXvy18hMDC4TcB6EYETiL59sHIDW0QmdCB3V%2FLmmzYYZqmXCKy22jQOUG3iIcu2AvTPIQki8icSEveLhScpGWjtTV24JKUwcnZBv8E1updx838%2BTh4d1iw4q55%2Fe2XJFBPspEHZmmDh3CnKLM8oxmK2%2FuGYWDK4qUlERblfIy3J8DQzomBoUbefyMn6zXzbF0nZUCCqpPnBNckc0aYJjqfUPThhtnSaywBDKlg50hfj4W%2BUZYig%2FbwkUmaRbhOtZUH%2BidabrIb6F1ctGzgp</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=pBWjaXBiLQNqOprlht728P%2F%2F%2Fw%3D%3Dsh4dCrzO7iPCY4KBKOlPOtTpYi6%2FvOZ%2BQQkX2uRKRJUKxvftOu908Nr%2FUHPIPW%2BdxdQ8aHcolmLRi2zQXY8TNtoMADcDcUnkVrjZVgJEaeSJgp0A2w6xz09hFiMdwT3R0gTWgDTxqLVKPCkLjYjg5%2FqAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BomKHnVkiq%2BAWesm%2BKoyK6bmMIdAK%2BNht8E%2BhvUoLCDng8J96Ri8%2BhSQgy1CQPIHxHA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCbpvwddEcdARuMZ3igsqknIRBsd1Czx%2B3ZZckFy1LL%2B80uDDpk1DdcEZhwgyr%2F%2FC60BPCvnP0GyxyoTfMZhh%2FJcFQf3fWMMiI2zxb2SmvXsod2uKPXlUULXfpVyjM489uXPONn%2Ffb5C3ZkfQ9VBfRKuQT%2F6%2Btd6HGguKOPNnza4PJQPD0TCxuLFfb0cI%2B%2BA9N1XeeqksJ3UXuK33ZMs%2Fao%2FLCqwXn0RztKGFSSj72wQnV6Pkd%2BA1rsiKLxF2WaSLjYGJV%2BCTKO6Z4J6DBepKfQH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17D9DWC1</t>
+          <t>LG전자 휘센 FQ17V8WWJ1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1939990</v>
+        <v>1220190</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17D9DWC1</t>
+          <t>LG전자 휘센 FQ17V8WWJ1</t>
         </is>
       </c>
     </row>
@@ -923,20 +923,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=6wcH0LCSnEWhL5x3j0IgSf%2F%2F%2Fw%3D%3DszsvAkM3zOYYUVvZXcwuxmdID%2F21LTSLHyLdtqmLTRqgGPlCOslkdMpHfsxh3dljLigPU73cCDPOP5JDasErQd6kxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0WH8IRGWExPdg70py0PD8z5pE2iHnzgVzfXc%2BIKSR%2BjXc9n6sV0FNuhACp7JCjWiw%2FYbTV9NqngX%2BsEPHk0QcI75QE%2F6kD10aW5IvIfVrUbIGBON9RPv11ssWEuk9DV2t3xAwytxZCtBbfYqK%2BlnvI11Vb1XzKmjD6Idarsaoct0rEaUcX0jgTeKstHoo8iewCcd0fHb84TLG817ZnCvLcgZ%2BAniH2pEZpp4HnwMLCi1u22TAoPSWJtPUDlUcIn8sx7hJie1dbOwbgTZ9U6hK%2BvpJE1Kd%2BtMvHgUmz82wvmQ51xREw9hobA%2BNpQYgLMi02WE9MON2t3Kk9pzR9imqydDQzXs2VBdp1NsAXIXeioMqI%2FVwLTQQC0lmXWSxmELb5ZBRlrdebDiRyWoegxLBUR5wEmxnzPuDu%2B25%2FnsMeZdqV7T5WLefKqm%2BgghRT7aWwlnSznB2%2FvpaYTNA1KPbzUDHe9Nfe8DY3mLC0erCQPo</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=Z9R%2BaCoMh%2F0j7RO1UeHkyP%2F%2F%2Fw%3D%3DsyoaCysp5ZqXYUjD5lt6wm3yhglZJ2igAX2cKbVYoVEIGPlCOslkdMpHfsxh3dljL%2FtcOZKmzjwPBX5tFF%2B1rKBm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp2pTwODM1jTWTRB85sYqdINmJfaMpSgPEsAH78Xjvce0b6xbB6g%2FrzIQNMUNBWyRGdX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUgW%2BfG4jOmYoq%2Fv41oLUx4SMh6yUa04UoNeDZnCc%2BJ0iL59sHIDW0QmdCB3V%2FLmmzYYZqmXCKy22jQOUG3iIcu2AvTPIQki8icSEveLhScpGWjtTV24JKUwcnZBv8E1updx838%2BTh4d1iw4q55%2Fe2XJFBPspEHZmmDh3CnKLM8oxmK2%2FuGYWDK4qUlERblfIy3J8DQzomBoUbefyMn6zXzbF0nZUCCqpPnBNckc0aYJHV%2BXVysWfjhZQOhSPBSY7xfj4W%2BUZYig%2FbwkUmaRbhOtZUH%2BidabrIb6F1ctGzgp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ111BSF2W</t>
+          <t>LG전자 휘센 FQ17D9DWC1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>407200</v>
+        <v>1939990</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ111BSF2W</t>
+          <t>LG전자 휘센 FQ17D9DWC1</t>
         </is>
       </c>
     </row>
@@ -946,20 +946,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=obX%2BjvbiK8jPvSwAXW8W5%2F%2F%2F%2Fw%3D%3DsK1ocalTI5a%2F%2BcMI%2BgSVk%2F3%2Bsmyq3xj%2BqpOjj6PAhXlK0ab1F%2FiNRjBAioL5DOy3nV7wgNafUgdIb75K1lO%2F9K8I67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiDFHcoL1HdIaQerLW9FbdrMqbXBZybOMhmsh83UoUTFCzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCymtuslDxEzKh4v9q5ACDqRRBsd1Czx%2B3ZZckFy1LL%2B87uagwdE%2B%2BA%2BdKynWPvbYJpsg2PpcixBSEbvEl9f8q3zFQf3fWMMiI2zxb2SmvXsoR4DKI1WUYMTvSUyEQWX60TPONn%2Ffb5C3ZkfQ9VBfRKuIVtu1DoiOv%2BJMju%2BDW4xkiM44hj66auYJvejU5Y6v9NXeeqksJ3UXuK33ZMs%2Fao%2F2SPVHJA%2B8HFvV5KobFxn3GgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=JI3XZJOvX24WbegO%2BgIS9%2F%2F%2F%2Fw%3D%3DsgGS5lLQg7sKFGf33G8%2FYLtID%2F21LTSLHyLdtqmLTRqgGPlCOslkdMpHfsxh3dljLpPOaaxVJsahsrtcUQZh0URm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEpwrf5CxXr%2FLhP3ou73b06NcBn6GR9edZEjCH%2BFh8DFWLZzw93dzre2kk2Wg2OcBGOqNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRkxYt7BdVWURQqzoD8XjchK8hBVAB4PioUBI5uWEsZS5Nu22TAoPSWJtPUDlUcIn8sx7hJie1dbOwbgTZ9U6hK%2BvpJE1Kd%2BtMvHgUmz82wvmQ51xREw9hobA%2BNpQYgLMi02WE9MON2t3Kk9pzR9imqydDQzXs2VBdp1NsAXIXeioMqI%2FVwLTQQC0lmXWSxmELb5ZBRlrdebDiRyWoegxLBUTz0uNHCO6lrnr0yg7%2FSOGiqV7T5WLefKqm%2BgghRT7aWwlnSznB2%2FvpaYTNA1KPbzUDHe9Nfe8DY3mLC0erCQPo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9KWC2</t>
+          <t>LG전자 휘센 SQ111BSF2W</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1664990</v>
+        <v>407200</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9KWC2</t>
+          <t>LG전자 휘센 SQ111BSF2W</t>
         </is>
       </c>
     </row>
@@ -969,20 +969,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=VvPf26La8lw6TlPg1zef7P%2F%2F%2Fw%3D%3DsZLgigq%2F%2BdohbRAxtXC00o%2BjmHj%2Fi2WsYteCQd%2Bwy2aexvftOu908Nr%2FUHPIPW%2BdxDRlPDbJl2%2F1NNZwMvzLFDPnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSaAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2Bm8FZrUbt9oepgDy4mxykNTcQshffuZtL%2FCFfS4GX%2BtTjjKYufjgxcUU7%2FJQog7O6HA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCa9Z0G%2Bhq8nUi4QMDWm%2FdS2iL59sHIDW0QmdCB3V%2FLmmwUo6xbcife4SbjML%2FzXJwWQI2r%2BUEc%2BTGlQ2HZau%2FL5GWjtTV24JKUwcnZBv8E1urVhMaGFqkBcY0XnqRT9tub7NewjPwxxbXq8M3bXV57zCrHLvWYu37vBiZ7LFR8gJhnUK3jdlQ5DJ6bY0FtPmUxdqf3u%2FlS7hmfvDk9xAaSfw7N7ocgBS%2BsAuQv0VUkHAnk0%2F3%2BBjWoXlZBcxRYQH3eVJzfjQBoreXjK0V2epISR</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=5wtoZmiLDz1IZPX7BwC6z%2F%2F%2F%2Fw%3D%3DsktqBTJ0xkStZ9NIBcksMOZRYcX0tPqmRR1GsvNRCOlnoD5kQXmZ%2FmlgaQw6KDZn%2F4HrCu%2FK2xUjKHiFE7t7ZfUm35VXU%2BnaCgx8fm9MK5X0DtuMvv5poq05NMn11dVtI6%2Fxhq2OKMOZawvSA6SevHX0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0RsSDWob0SzI6TxzQSlMDGs5l1r4rLTz48mV02UstdHcZzw93dzre2kk2Wg2OcBGOqNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRkyMtNBuH8A6Sye%2F5n6k4Wrbumlmcusnk5Pkyl4YhTKcfsKHtyr%2BZRApgMpd7sR2Vq7ZfJrdfb%2BvNe9V4zOTJi%2Fe7SywiWpjhs%2FKFZ1tr9Wz7ZWiwjBY9r0qa3Wd56KjdhQp9VYjkDPqcJTQWPetX282o3COQaFjpu13pgwon5MweF3GbNoclFFFf3%2FZd7W6xwghfukCOMRMhEtGYlmOGyq4xDXQVyPCwm%2Fec7A%2FlRVB6bdSTVcrYHjgnLfgsXxy7ryQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>한솔일렉트로닉스 한솔 HSE-50K</t>
+          <t>LG전자 휘센 SQ06B8PWDS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>253440</v>
+        <v>409080</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>한솔일렉트로닉스 한솔 HSE-50K</t>
+          <t>LG전자 휘센 SQ06B8PWDS</t>
         </is>
       </c>
     </row>
@@ -992,20 +992,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=CXVZAdBQs6oOfQGI2aHHTv%2F%2F%2Fw%3D%3Ds0hBeze5pgsOZ0y%2BazG2JNti2B8mJl92E6%2FQr79eWdk0GPlCOslkdMpHfsxh3dljLIgAZ9YAh0Wo%2FE3hX1ovBIiqSOZO3b2DP9ZTRwpwjBrjvItwAIfwnOW8QmSEoyFZ2fDKz%2BrEFdijMnBpzQ6uoHuGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp%2FVXqF0wl9y7TKkEloRHqKDsV%2FSCUMyVm76DqWSIT%2BplK4xMK0bsh4GnkrU3YljcQtX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUgW%2BfG4jOmYoq%2Fv41oLUx6utqcokSxvT%2BQosXSnEhIoiL59sHIDW0QmdCB3V%2FLmmz5YoGOKre93Dm5GOj8EyHMx%2FQCNbeHk8AkB8%2FK9gRMiGWjtTV24JKUwcnZBv8E1up3sz3%2BkC5U%2F3Wd%2BxJcDlb5Cicl%2BoMqU0Wf%2Bgk0Hb62zX2RUa7zcfttkUI6NA3PIKywAK7abKiKyXs46xADdP%2FYxMhfc%2BpirvvookRv7jacLI0CrAzwmrRkjqJIm6RzpSGh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=Dn8hht%2BAebKqjEgVhgbmHP%2F%2F%2Fw%3D%3DsOqzZ594niKbnfqHl5Qn2Bn%2Bsmyq3xj%2BqpOjj6PAhXlK0ab1F%2FiNRjBAioL5DOy3nFc2pvH7NKir5yKO8pWV3kSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiDFHcoL1HdIaQerLW9FbdrMqbXBZybOMhmsh83UoUTFCzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBIwe%2BWgoagFXwhV6sqS1wxwiL59sHIDW0QmdCB3V%2FLmmyl6eqdwHhwDEAMB2Xv8dzQqxKVovgaxkDqkgCqrNhgpGWjtTV24JKUwcnZBv8E1ug7OacLstFDjCEFvWaOiGcLJFBPspEHZmmDh3CnKLM8o5PSxloevvC66A5UoddPveTtyDQxReYUKABEKVlpybHPbF0nZUCCqpPnBNckc0aYJAJ0RUNcNO6S8mkocQbl7bQ%2FO5l7JOKquWHx3ssFss5qtZUH%2BidabrIb6F1ctGzgp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21센추리 CYW-719AR</t>
+          <t>LG전자 휘센 FQ17V9KWC2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>637190</v>
+        <v>1664990</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21센추리 CYW-719AR</t>
+          <t>LG전자 휘센 FQ17V9KWC2</t>
         </is>
       </c>
     </row>
@@ -1015,20 +1015,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=jSKJM2RcIEWQG3o%2Felnxav%2F%2F%2Fw%3D%3DsSXTDeCjaPy3Qi59cYarJTlBr%2FptN7fd6A61Y9auhuE8GPlCOslkdMpHfsxh3dljLd3x%2FGtD2m%2BPAMnqjJkHFQqkxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0fhAnl291YDmlU1W%2F01LawdeTVqWIYAfLY50mz6zFUkYvJ3ITYE0XMZ4xfTrD8QSWaNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk33cz42Ga19ahXOyGypaUVRLKFtq5h%2FZxXvDIH4DN9UGu22TAoPSWJtPUDlUcIn8s8oxcmA9M2d1rns9CKy1s67vKQff3sBrF4HpCYmbfkpBLn303qyVLoMTlPk%2BmtQBMCEO4TY4CXUqwWSsoAuVFw2I%2B8188tFJreERyWQU97n%2FLnFl3inq7VAaHAEDTi5PWShdFcnSajHFjsCbiQmLPB8clPYglc1VmK%2B%2Bil6YhKDziQoXkUd5wvHYc7hPsTGUmQQxmi%2BgXOynM6ftfimiH5euo8LxotIBGi%2BIQZ4pZftG</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=M0loV8ALcca2zXOPA0QmOf%2F%2F%2Fw%3D%3Ds6YW5k7xl5invh2d43szeNhrERJ8zM5Av2N6K3p13TWS0ab1F%2FiNRjBAioL5DOy3nu6ZPcK%2FDfUROzXiqKPSylCvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiOBBGE4ZnZLIvdPFktOchOAy27as5ebFMIZ0%2FtnPRlfFW8LTblGb7LYgM2272ZMEAVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCz05NJHlJOW%2FkDPRoDhVO6CiL59sHIDW0QmdCB3V%2FLmmwUo6xbcife4SbjML%2FzXJwWQI2r%2BUEc%2BTGlQ2HZau%2FL5GWjtTV24JKUwcnZBv8E1urVhMaGFqkBcY0XnqRT9tub7NewjPwxxbXq8M3bXV57zdjZ6LzNMM1CaY0y9YtBPZuSRkwrCDbqg0jqh1c15XS4Mt5HUA3VElFUNZOLefCUBuENMotPhrpSyJ8MW%2FelG2Xk0%2F3%2BBjWoXlZBcxRYQH3eVJzfjQBoreXjK0V2epISR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LG전자 LW6017R</t>
+          <t>한솔일렉트로닉스 한솔 HSE-50K</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>213000</v>
+        <v>256310</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LG전자 LW6017R</t>
+          <t>한솔일렉트로닉스 한솔 HSE-50K</t>
         </is>
       </c>
     </row>
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=YevlNt7b%2FDW2Ii053abop%2F%2F%2F%2Fw%3D%3DsJ1JgxU3SQFbmoCAACpDTF2FN9eGRCu97uqWrqnRouGm0ab1F%2FiNRjBAioL5DOy3nBLspP4HiZqmovkmeDLfTxcI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2ESIubQx87Eao%2BbIHclg669CCTxEYumlfmS0CSfIhc3rKFxM2cweUs%2BoC%2BatSujLi3LF4oKu32WIdCQO8eZwrhClTx9VSpJJlEGsO5qLSHR%2F2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAm9cn82ErJMAkqfadbrH%2F6kS3B5RM6eQwx38ZLm%2FidZIFViKZ%2F7SZob7a9ImBFhkjTdnVvC24M%2FJ90NSlbJyG6OgySqnEdL9izqC9zhU2wfQ2Cy9rsZe1xappyTodvs4pj0qC5eoVzluJjMafSglpv0lDtaC8zQB6NfjZMUDSutlEOirc%2ByPX8KqxeUNVmTbTXH4%2BGdkxnhAYBSivPXHZM7AHYahjPOjU%2B3xOMKsmfScYPnXMDmOIIUNIyMtIHDsGeP92yoY0kLHNfD8BTA%2FMgBMM8f%2BjoiAeP1Q2kloGvdREQT2fRpDzO96mXE6QODuuhsCaWMv%2BZzx8NycedQt3kxKMMPk8JtMDneaGHMgFAQXQuOf80Xv8rhF5qLnJLMot1338Kt3lGaQzIldXWHr5Gn3k0%2F3%2BBjWoXlZBcxRYQH3dwT7qNxZ7rk4rXtlBOGbaQBw3b%2B5x0xiNxsJwxkW4Dqw%3D%3D&amp;nv_mid=81965706317&amp;cat_id=50002521</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=9JzcPpydQMxl3Zgtr7Eu4v%2F%2F%2Fw%3D%3Dsavjd96bsYwizFvwBIfs08R96vgs4pGu34UvuSrJe%2FmSxvftOu908Nr%2FUHPIPW%2BdxncijEyaibDSPGYh6tklNspXGkdN%2BY8DRasr9WVM%2BWddyoXrOxr%2BwFgXq9Do3f0%2FsL00gG4hIpxGGcjLWgblWH02Aor3SbsBTEsynuMdRXOh1Vb1XzKmjD6Idarsaoct0Q7Jqr3KfAzDa3y0K64%2B7i0I1tERvJWugMGNbwRGjjVlcpMoTh04nkHRfCtclyz8JeZ3gy%2FUK3CKyGPtCsUcc6MeseGcEU1ykTGtBBwqjJSYCgANVHBGbxS07KO7OAv40mK2E0zbR1Q1slY21aEPEsF%2F0kyt21OEL1dzemuY%2BTlFjOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBr0OmqjcJxU2cG2FkmzIan0RBsd1Czx%2B3ZZckFy1LL%2B8ysyrJNy7YHSgYx%2FtpxuoXST2PolgQvKBuZs%2FPBxC1aRFQf3fWMMiI2zxb2SmvXsoUTxMjl48wp5HU17qjfSq6rJFBPspEHZmmDh3CnKLM8o5sorvVy8ix3FqU4cpojEuPS3BdpkMbWEp7R%2BWnjnT50yT262iEkgaZmwIRgcz91RO%2BHSBjw%2BSE6PYJhpA7Bbc4LABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>캐리어에어컨 / 냉난방기 스탠드형 [2in1] 16평 18평 23평 사무실 업소용 가정용</t>
+          <t>21센추리 CYW-719AR</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1230000</v>
+        <v>606320</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>캐리어에어컨 / 냉난방기 스탠드형 [2in1] 16평 18평 23평 사무실 업소용 가정용</t>
+          <t>21센추리 CYW-719AR</t>
         </is>
       </c>
     </row>
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=450U%2BfHqoTaC3zqFaqk3Uv%2F%2F%2Fw%3D%3DseOSyGT7or0XQFEIhWhKMEF49rc%2FIFQJCOmFvsdGAvKq0ab1F%2FiNRjBAioL5DOy3nb6ZPUVwuraYVrflHM%2Fl5YsI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiLaDXgaZiqosvkzd6%2FMAk0WzRU5S5GCGt1srbi1XS57zKhbg0KnSQ%2Fh2pF%2FpLMheaVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCw%2BloFsQQM9exaGIzXtll%2FriL59sHIDW0QmdCB3V%2FLmm9BN18lce2vCSEDLJQmrRiraV1ysX3BHm76nbSKkxbZmGWjtTV24JKUwcnZBv8E1uh9LV7LIy0FwVQcUXUpnw%2FjPONn%2Ffb5C3ZkfQ9VBfRKuelAKiPoiJxm%2FQdtwLrEh3cl%2FMg2Bk%2FUd%2BNFzeGQipA7bF0nZUCCqpPnBNckc0aYJ6BF4N9YvrX7ULWjVVD59Gg%2FO5l7JOKquWHx3ssFss5qtZUH%2BidabrIb6F1ctGzgp</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=Q%2B4Xoho%2B3bSqqMzAnZ0E5P%2F%2F%2Fw%3D%3Ds%2BlezDg8SiklNYjkOPgexblBr%2FptN7fd6A61Y9auhuE8GPlCOslkdMpHfsxh3dljLn3sjZSB4b%2FKvaVWacHUVySvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiOH0qJ0FjAVIC2RDUyJ6CpCyEXTyrCoosf5xBagiwiTEz%2Blg6uQjZlSUxh9T6tlSN1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCz4ytBjpewdEroBj5qu9ApIiL59sHIDW0QmdCB3V%2FLmmz5YoGOKre93Dm5GOj8EyHNbnI1wpVLQyV0B02ZXVIwNGWjtTV24JKUwcnZBv8E1ukb6UCwbESngRe21D5TSTV2OIyOhdvraBmflkPvcKH8sMYOgX6k0KeoBVtI4vTbJBOI%2BdQe0DkHVODl9kKWHfuw1ZvUw9HIosvR5w6EqWb%2BwMSsLdvZbR9tFqTxC0kqvfgmZCy4HoySlkEh5tcViGR2VJzfjQBoreXjK0V2epISR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>삼성전자 AR07R5173HC</t>
+          <t>LG전자 LW6017R</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>685070</v>
+        <v>213000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>삼성전자 AR07R5173HC</t>
+          <t>LG전자 LW6017R</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1084,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=ynCBT63IPrWCIlk5vJrHgP%2F%2F%2Fw%3D%3DsBlQQL8lpr3izt3CwVXq1Je%2FV2cFhzYUDcBCZ1m3XHjMGPlCOslkdMpHfsxh3dljLJCC6tTpyl83NwPxsBpbS46kxyZaRW07Ode%2BcZyPeiylQ5jNt5SPGqbOUpCa2yTdqdY8HmQaum32Ar2Dp7rPKJH0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0QX7JnOizicGlu17n1qvzq5ZM%2FWnHsGyvQlxTGxNUTaWZzw93dzre2kk2Wg2OcBGOqNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk62fbB%2F6CSnPuenLD6t4hM9o1t8HE9pRK1ZValHgRPQsfZTIAf%2FvImEcW7nc%2B0RRhP1JM3op5svN0x9pds9zBA1W83YWnE4x594u8rGsHLmkZeNdMkKFVLihn4XBLEIfcKUnB5XdKxYncV2886%2BnvFNCicl%2BoMqU0Wf%2Bgk0Hb62zvAQ0OH01PeecE9x1WtzsUPNFXGupzLzQ7iY%2FjaEb27UHZHEjk8NZ5ZCHOeyFDPoCHEydXBOFqfQimRwPo6bK5Gh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=0KYOBQOq1xxLqTQjPd0xPv%2F%2F%2Fw%3D%3DspluD5ZtYyhtfKfVj%2F0fo0ZALkF%2FolFARnHWuWq9MkmmxvftOu908Nr%2FUHPIPW%2BdxBb5GgsTkI%2FGvIuonFANs3ZXGkdN%2BY8DRasr9WVM%2BWddyoXrOxr%2BwFgXq9Do3f0%2FsL00gG4hIpxGGcjLWgblWH0ghO%2Fto5Sf3TZYD3Bh6mTwlqkkFpuP9fwB3P4ovkNeMUCsQ17cYJyTHcG767t5o%2BdDu2Uo0je2xlyjKg%2BMUINA1nmlVCq2W%2B3JplQR3thl%2BZXJ%2Fh8R4jCmLVYlH%2Fn%2BlF%2FjVvVO99DI1ruFyJb6vcmFlmJBw1iNeZR4AyS60mkLtkOJZl1EKtYv2s7cJHoExi%2Fy18%2BMhXerCnyQPtFm04D3LVuJR%2FzCq12G49Y5Q3oCS0LT37q6gGnRpRpkRfUngXlQ36rKtIY4yfG2M0n9mTO7EljPmOrcB5oUMEhwsumMV4OCUKzmWqzRkqaslPTx21fpM804lV1C%2B1MaZCuCxIsTVGTJrG3YlzXOaemPCRbUQ%2BheyJqd3PDTIB7FCFW6SJGOoq1TdT4uBs%2B%2BoDk92ergWlvI1OnbGNDBjkHH7vKgF3g%2FOhkP4EkTc%2BSH0Ve39Fl2E5awLpAbcw4TtMxV%2BJS8A7ck0y0148gN2lOdWJtKtsDLWXj1OqNxlvQRqVdpvBG%2By8HjgyKH2R3rqU3faqRlJO057qW3VozeN%2BgW3DnMnglE%2BURW62DYJ5SrLS1Fk62h%2F6loHayLw7smVONnyo74GPIWm%2B1lkaMwzZTOZTtqSyxm2wuwegcyPy5hJ7IPNig%3D%3D&amp;nv_mid=81965706317&amp;cat_id=50002521</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ06M9JWAS</t>
+          <t>캐리어에어컨 / 냉난방기 스탠드형 [2in1] 16평 18평 23평 사무실 업소용 가정용</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>835040</v>
+        <v>1230000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ06M9JWAS</t>
+          <t>캐리어에어컨 / 냉난방기 스탠드형 [2in1] 16평 18평 23평 사무실 업소용 가정용</t>
         </is>
       </c>
     </row>
@@ -1107,20 +1107,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=AjASGVPHawzqilC6JprwaP%2F%2F%2Fw%3D%3DsXNW%2BAw%2F68z6fN0GmNlhrEPXW%2F2md5AERmncnZW7%2FJHO0ab1F%2FiNRjBAioL5DOy3nwW6RcwnHdDqtoud28x4Qm8I67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2ESIubQx87Eao%2BbIHclg669CCTxEYumlfmS0CSfIhc3rKdyC0ysT6DKdSLtkn5yZiJ9xQRpTjp5tP06kuR3l9EWlTx9VSpJJlEGsO5qLSHR%2F2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAm9i1PWC2bguTqPPwI%2Bj9QY68e0WU8go38yc7qt4z%2FuAU8ARp8s4p6fBvLs5Sk2qse9rhwThTBuCoL2wy70DD%2BVPdEfDc3nOACrhy96tdreoKjClnwQZa9dCCfJXH0dCNlDAhf%2FYKwyJR%2FRy89oI7AjMLL%2FqMmd0zzjIkB9MNBm9keXj5uWkC7D77imojD6Ci6hDYR9IMTo7SX7pn94rLA2A4e9VClsUq%2BisUCMgGeOMBzRg2Zw7rT7%2FgyvsqBzum9B5z5yfhta8wkrfLcpW40PqGKhc7V6eXdmgZsp0XM7Nqp8hNnjcWThNnM%2FQvecAE5xXOHC6k%2FuI8V6%2FUn979Pu1cwqWM4vstZTSTjdCbe892iAwDPYadclURmaZEAatU0eTT%2Ff4GNaheVkFzFFhAfd3RS7izFNn5GDydtpnZVJk8HDdv7nHTGI3GwnDGRbgOr&amp;nv_mid=81962151280&amp;cat_id=50002522</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=QeF0zydGsn0%2FDOXy7TD4av%2F%2F%2Fw%3D%3DsfqCiUTzOVXLn2nnpPpIKgu%2FV2cFhzYUDcBCZ1m3XHjMGPlCOslkdMpHfsxh3dljL7jaZqEyjvJl90%2Fhrr0WHHxm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp%2Bptm%2FcGuc3CaJqJ5fODu6Z27t8DZLzfUAZnxj70JImxrG53JVz4h6FSQHCfsdw%2FV9X%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwZt5xXOAtyiWaoWp5okUyo%2B4kZirFLrMNrigvLh9z5Wfu22TAoPSWJtPUDlUcIn8s0xwfSLS%2BKfwB51KzUr9rqsLwAH02TcDG%2BHwCtjZvg2OLn303qyVLoMTlPk%2BmtQBMP%2FycuEa4SVxpsOdmpxhAvl6L48pkOWS%2FjdqBK8RBRTNVw4KOlF0xKeXwVTyVjnXzxldFqYEH7Z%2Bt4nF3S0tYh203PzlhJEeyWITDn4BQn6bLO57oeG8CgK8%2FE1UQV1oank0%2F3%2BBjWoXlZBcxRYQH3eVJzfjQBoreXjK0V2epISR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>캐리어에어컨 벽걸이에어컨 6평 7평 8평 10평 [실외기포함]CSF-A060CS</t>
+          <t>LG전자 휘센 SQ06M9JWAS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>270000</v>
+        <v>835040</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>캐리어에어컨 벽걸이에어컨 6평 7평 8평 10평 [실외기포함]CSF-A060CS</t>
+          <t>LG전자 휘센 SQ06M9JWAS</t>
         </is>
       </c>
     </row>
@@ -1130,20 +1130,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=wAtfuyGF2tmf0NZrl7hls%2F%2F%2F%2Fw%3D%3Dsqe7tzFbWMl9bl7azhNXPUXPGQS4ltp8AmEchJ9YLokoGPlCOslkdMpHfsxh3dljLUcz8riRzvR0%2BPyCbX81bN8I67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiDNyU064izOTQrVzEcnrVGCNgvjvvrfJ9pvHtFqHQ%2BOlzrERhR3Tgf9Vghlg%2FVr%2FzFIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwrCp%2Flby1kYDU6iKlNAX6XiL59sHIDW0QmdCB3V%2FLmm9O1JfQ60g9I6TTXUUlFo0tDWZDQbd%2F8AF8kFYktc4IAGWjtTV24JKUwcnZBv8E1uiqZfiNkOqPs2dtpIDl3ROHJFBPspEHZmmDh3CnKLM8o44BJeZOPcg%2BEGNVLM5XfntMHOL2NB1qw92s0OwzuqNPbF0nZUCCqpPnBNckc0aYJQjI%2Fc3ejqKJWLtzSRyWplT0aT0QZIaylojwlc5eu6r%2BtZUH%2BidabrIb6F1ctGzgp</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=ANhodCZVvPJRi2W1%2B6JoDP%2F%2F%2Fw%3D%3DslaxdtGhVGnwQZTGmrQsbfiE5K2q7rLzTaGN%2Bv8SRL80GPlCOslkdMpHfsxh3dljLawBF9VUjz28ocDTnUmCGVSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59ESIubQx87Eao%2BbIHclg669CCTxEYumlfmS0CSfIhc3rKdyC0ysT6DKdSLtkn5yZiJ9xQRpTjp5tP06kuR3l9EWlTx9VSpJJlEGsO5qLSHR%2F2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmHD9sDwNPMvhS9sgt%2BuqiHq8e0WU8go38yc7qt4z%2FuAU8ARp8s4p6fBvLs5Sk2qse9rhwThTBuCoL2wy70DD%2BVPdEfDc3nOACrhy96tdreoKjClnwQZa9dCCfJXH0dCNlDAhf%2FYKwyJR%2FRy89oI7AjMLL%2FqMmd0zzjIkB9MNBm9keXj5uWkC7D77imojD6Ci6hDYR9IMTo7SX7pn94rLA2A4e9VClsUq%2BisUCMgGeOMBzRg2Zw7rT7%2FgyvsqBzum9B5z5yfhta8wkrfLcpW40PqGKhc7V6eXdmgZsp0XM7Nqp8hNnjcWThNnM%2FQvecAE5xXOHC6k%2FuI8V6%2FUn979Pu2rNh8Y9bhB8raLY1brxTEKiAwDPYadclURmaZEAatU0eTT%2Ff4GNaheVkFzFFhAfd3RS7izFNn5GDydtpnZVJk8HDdv7nHTGI3GwnDGRbgOr&amp;nv_mid=81962151280&amp;cat_id=50002522</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9DWC2</t>
+          <t>캐리어에어컨 벽걸이에어컨 6평 7평 8평 10평 [실외기포함]CSF-A060CS</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2389990</v>
+        <v>270000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9DWC2</t>
+          <t>캐리어에어컨 벽걸이에어컨 6평 7평 8평 10평 [실외기포함]CSF-A060CS</t>
         </is>
       </c>
     </row>
@@ -1153,20 +1153,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=P2qkBsfcsgFwtM%2BTAp1r3P%2F%2F%2Fw%3D%3Dsvh0TA%2B81wIE7%2BtCUcA%2FBE0JFgdTsLtUQHlwvr%2Brhy2kGPlCOslkdMpHfsxh3dljL1fr2kULao0UXwae7mBlEJcI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiD3yAglZv3P3Jn0kHBSlLDDpmbOnSEvKiknkv5YtpNvaz%2Blg6uQjZlSUxh9T6tlSN1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwBv9lmBRS7az3pwMNsUHjeRBsd1Czx%2B3ZZckFy1LL%2B8ysyrJNy7YHSgYx%2FtpxuoXSFxmgRPpapbZkkEcvfajSFFQf3fWMMiI2zxb2SmvXsoesp30hpSjJN6NPreM7DvP9Cicl%2BoMqU0Wf%2Bgk0Hb62zBf3QsEpjGVPDlCMmdx0A7LrFIjLjpzRgAf%2B6u3bkCzxF59SG4AlOdKKugL%2FFrRSTdgQbIBeyefCxwjt4VstKpmh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=oMern0JHU9iTaNax4c%2FMdf%2F%2F%2Fw%3D%3Ds9rukuMpcxJwhJMsXLugOtHPGQS4ltp8AmEchJ9YLokoGPlCOslkdMpHfsxh3dljLPVZPF2cOTMUrezgxjvh9Nxm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp3vSKFU2expblbYm5TpuYL6onfEd56EnAMsm6m4xXw8z8zL2MVouyPSzkm4hLxgyctX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwUYJPKC0qwKAmE03A6Msdi1LxAJbAAs8hgtgdTBnzxXpfZTIAf%2FvImEcW7nc%2B0RRhANNS1p3%2BDbuW07y5DFbjoBbedY59dAiux5ZxeC2dzkBZeNdMkKFVLihn4XBLEIfcAqTY%2BkuIIolJtXxoymXaFpCicl%2BoMqU0Wf%2Bgk0Hb62zdnOPPXRnsN7nGZi8zl7ovdlxXRaZ0giI9kATonJEHqOFAAuC5F6Va6BhMnKMpcMWhTrpZ1TdIgpXocMRCFJpLRkmOdwSNtTHYhq6F2QQP52Pl%2FYYvX4eO6WWFhuAVbKB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21센추리 CYW-042T</t>
+          <t>LG전자 휘센 FQ17V9DWC2</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>254370</v>
+        <v>2389990</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21센추리 CYW-042T</t>
+          <t>LG전자 휘센 FQ17V9DWC2</t>
         </is>
       </c>
     </row>
@@ -1176,20 +1176,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=vAYQvo7d%2BZNHpF4URsGfNv%2F%2F%2Fw%3D%3DsD9AMDrEdYqIOXnd7%2BzwqWjM5bsx%2F2XXsu%2BY29rvAfK60ab1F%2FiNRjBAioL5DOy3nKh%2Fue6dFZJs7Z77HWWHhBfnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSaAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BmYPzdTYOl%2F57pkvDkcKVG%2BIbbmC1gYhrdAxD%2B1Y2omRvMInWYTR6iHhAJgcOSbTyXA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCYaOk9VhZquEIsSLcP8DUSpsKHtyr%2BZRApgMpd7sR2VqwvhtXaLZRUcpSQPC1Yr72J7OAmyKqGH%2FhJ7HVqNqxgbZWiwjBY9r0qa3Wd56KjdhSYpR6wYLg2JQEm7KEA9%2Fv2o3COQaFjpu13pgwon5MwesOvP8N3pQdnFXlTXYJ15yrHarPY9bRr1jzwUJSTIDx1ZeVzTHFY07DYl1OXO4zmYbw6lgU6wARuvh7t0IGaURiQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=itWWAoxOpiGVrW%2B1Lu2zqv%2F%2F%2Fw%3D%3DsCMqAKZoaYiwNxtPPOw%2B1FxwMlrYw44TuYP2LwlQUdB7oD5kQXmZ%2FmlgaQw6KDZn%2F1XPBvuFSaU6HJo0D0MKE6km35VXU%2BnaCgx8fm9MK5X0DtuMvv5poq05NMn11dVtI6%2Fxhq2OKMOZawvSA6SevHX0uxbhGCKlU8oD%2FYg3hwAmTPkYnuY%2Byatqt9ZKmjFUYALYmir1yi%2BCoifnqT4Mz0dE89yRWmsP1jTwvzr9EDeABn6GR9edZEjCH%2BFh8DFWLvJ3ITYE0XMZ4xfTrD8QSWaNRe9N67n2JAYrC5IEy1MG7Z%2BvvrreCDf%2FIaHUM8hXQlksOs8Nb%2B%2FKiC2K76ueVLbJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRkz%2B68GobJTj6joEKveEU47VPePeLtNCPyvhcCYhe5kwou22TAoPSWJtPUDlUcIn8s%2FgZZzfpGkHWdZhYnI6Y2hYZdQK12EceIx%2BS0LMvyo%2BhLn303qyVLoMTlPk%2BmtQBMDp54lzrP2NNMzkoP0nQYcBkMD%2BLCd1YhXFvJfZfz7rn2nPXPYPz6O80%2FYEDMgriYpZBRlrdebDiRyWoegxLBUQ7RAw4%2FgxdNNMpxoD%2FdtAN1VFHnPqEutcZKFH%2FK%2FyOCwlnSznB2%2FvpaYTNA1KPbzUDHe9Nfe8DY3mLC0erCQPo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ0737SWBS</t>
+          <t>21센추리 CYW-042T</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>428840</v>
+        <v>254370</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LG전자 휘센 SQ0737SWBS</t>
+          <t>21센추리 CYW-042T</t>
         </is>
       </c>
     </row>
@@ -1199,20 +1199,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=cPZ%2FQsGoegaOLza9mAdpgP%2F%2F%2Fw%3D%3DsBMcAsEa1n%2FLMN%2BZB54JDjbmdKl18NFtcFWM0KP5fK320ab1F%2FiNRjBAioL5DOy3nNfYRccvYDA2%2BPBvD%2BwKg%2F%2FnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSaAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2Bs6IK2LeShWFPwc5K5BW8YDMwyqcidNapC%2B%2FVUHBKeikg8J96Ri8%2BhSQgy1CQPIHxHA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCa87wHCATSQODxXGxtKaviXRBsd1Czx%2B3ZZckFy1LL%2B89SR%2BleT1hahFupHlJThkzWdEzBxK6mu7%2BHUKYrhJdDsFQf3fWMMiI2zxb2SmvXsoRjMYQIpk%2Fv5bdMD3eemrrXPONn%2Ffb5C3ZkfQ9VBfRKuGiSW6NUyzUBhHARB9GDTtrIIebYXqzdrOlEZWFiupwdXeeqksJ3UXuK33ZMs%2Fao%2FfPrzv36Tbr5YuDCz0O%2Fwp2gJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=XVLEvBN5Bvmo5C0TjX90UP%2F%2F%2Fw%3D%3Ds5EpbPMkSvpYhtkFT3oRsJzM5bsx%2F2XXsu%2BY29rvAfK60ab1F%2FiNRjBAioL5DOy3nY5eZFemvSocBbE%2BV%2FvVKHhm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp%2FeOL7Y6DHIb7R2LZVVwnRCrT6RHC8Coe6FgT8IQKl22rG53JVz4h6FSQHCfsdw%2FV9X%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwTOlyO34Kig2B%2BuOjw5oJdPX2rX1XL2pm3UkCkwktygZsKHtyr%2BZRApgMpd7sR2VqwvhtXaLZRUcpSQPC1Yr72J7OAmyKqGH%2FhJ7HVqNqxgbZWiwjBY9r0qa3Wd56KjdhSYpR6wYLg2JQEm7KEA9%2Fv2o3COQaFjpu13pgwon5MwesOvP8N3pQdnFXlTXYJ15yrHarPY9bRr1jzwUJSTIDx3rSN4k7PNC0eZPUGK4dRjDbw6lgU6wARuvh7t0IGaURiQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9KWA1</t>
+          <t>LG전자 휘센 SQ0737SWBS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1479960</v>
+        <v>428840</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9KWA1</t>
+          <t>LG전자 휘센 SQ0737SWBS</t>
         </is>
       </c>
     </row>
@@ -1222,20 +1222,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=PLrCVe3B9RnZ9l%2BTJkALVv%2F%2F%2Fw%3D%3DsMnaRSUKmN1mF%2BR11KDjD3F9JnBAJsd%2BQaWlSVMgEQFG0ab1F%2FiNRjBAioL5DOy3n4Clbsl7oMoDAWrIlnwGP5%2FnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSaAvVYD5wdNeqlo6h%2F1u%2BD5S0MlE9Zhp0ZdexlLGrR6%2FIPsP%2BELw2w9UoOF0Q%2BTj%2BmDpFu7CkUDnjRws1trYWZfQFgTyhliE3sljUPuO7KcVvdr%2BlLHPzmyLhjwAYutAOnA8kVm7aK5A4dAUeVC019CCqx0U%2FJtZDdR4F05SI9YjYCQKcjPrJxAWDNKexCXgY6VPH1VKkkmUQaw7motIdH%2FalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCak57JWtFb64HBARkF7b9p3fZTIAf%2FvImEcW7nc%2B0RRhO2%2BPdayX0n4%2BlI9VBkDc9i6M05kS0pw81Hd2W8xBuHlZeNdMkKFVLihn4XBLEIfcM4eb2SbGXS%2B1CB0xBQYUEnPONn%2Ffb5C3ZkfQ9VBfRKuM8ttFd0ElztDWE1%2Fc8WJj3rctbGkuZ%2BLIW%2BJht3r3jdXeeqksJ3UXuK33ZMs%2Fao%2Fn88JUcID9HR7JutNxTIpsWgJzWOlGJR8hIbRxOiDWyMGJV%2BCTKO6Z4J6DBepKfQH</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=WpQT54ggAbrZ1%2BbzmQ4Ud%2F%2F%2F%2Fw%3D%3Ds0moa0Qmq7NS1ka%2BE2baPbrmdKl18NFtcFWM0KP5fK320ab1F%2FiNRjBAioL5DOy3nS3c%2BDqVETvFYXGT4bb%2Bs7CvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiCUBQcreJvToFAPZ9p%2FvQGrRGoM2qmgfb2gtaGhL3YXsk%2B%2FD78m5vM35zm9aIEduG1IIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBLlUJIuHNA9GtOneNWmN%2FiVfZTIAf%2FvImEcW7nc%2B0RRhHHMAxuDb%2BenxYmRnd02JpuVjdlfER%2B8m6LQuVgJUApjZeNdMkKFVLihn4XBLEIfcIzU4f21ok22qAyI%2BxNNxJhCicl%2BoMqU0Wf%2Bgk0Hb62zC%2BkDkr30IzlhsPVRi4aIBpE1CYj8FviRwUffZJxef22FAAuC5F6Va6BhMnKMpcMWNzH1bPod4yotppTDY5YeT4LABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>삼성전자 AF16R5773WSR</t>
+          <t>LG전자 휘센 FQ17V9KWA1</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1822490</v>
+        <v>1479960</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>삼성전자 AF16R5773WSR</t>
+          <t>LG전자 휘센 FQ17V9KWA1</t>
         </is>
       </c>
     </row>
@@ -1245,20 +1245,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=8j6rSplNNoEOSyaxeOtg0f%2F%2F%2Fw%3D%3DsVcP%2BBQDM05fTUjxonfnLAqM1wedhJ5PMov2c5oA%2FalSxvftOu908Nr%2FUHPIPW%2BdxMhCtO84q2aTDh7uEe4i5UMI67r3wA5c%2B3Qj%2F0F652seNUOeyd6isl8EgdTlYqJy7ibino9MlmMshyjN5W7gO2EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiL1LWPyhaJ6gmdGhTWrrmoUEKrYWJYuG42HiLk4m0rWwW8LTblGb7LYgM2272ZMEAVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBJ6hkJvT%2FfAKecuQ0vXbS78fZTIAf%2FvImEcW7nc%2B0RRhBCUltGyRCxKq3aA8JE0ZZXMrZ08HlIY0Xen4lqWc15OZeNdMkKFVLihn4XBLEIfcAdd6cP2ClaGSHIiDetMoeyo3COQaFjpu13pgwon5MweYtpvMPbmIUOc8ApE45jisGkjDNzDaARaBuHDXdvA412vktLwP0ft7BkT3x%2FHCvXpGmSm4GtWMB5vGvVUmq4zMiQRGRiBVC%2B3n1YKj4%2FXyK3sJalAhyqex6Ya%2BipIGATf</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=AVVSUcTgsBIaJ%2Bvu%2BZkN0v%2F%2F%2Fw%3D%3DsfDGb9YSMCHghYnmlstx8zl9JnBAJsd%2BQaWlSVMgEQFG0ab1F%2FiNRjBAioL5DOy3n7aWaLmTvThHAFollhLsgnRm7p1HdTFIRXB7mGY3uyTDPQHZXKINK71HczK17uTDze2Errvu1deuyYe29JRZ%2FP%2BGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp46L2GgzxEVycI%2BfZkNlm9fNgOxknPui%2F2w3zfo%2FV8e38zL2MVouyPSzkm4hLxgyctX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwa57UunzAfs4N3%2BcS6VggwpMYxbYZcpUvj%2B7aCFigxoeiL59sHIDW0QmdCB3V%2FLmm7NMPbWCpRXA1CqmND8Op5pNviUSKHnc0WSa%2FBju21TOGWjtTV24JKUwcnZBv8E1uhAC8eq91TK9zLv5HtX%2B%2FlWaMzy4%2BXgIZZ6GtDP1qd6c890AJ4BlG59DN3IxglFdPfc0FEH9SesFlEVT2ELjonB8bVKivxgxrbW%2Bq5e4ZemR7Sl1F7gBvucyKLhiobxEbPTKHj4YMkQMoQqsg17BWAJExKGm4vcfDBoyJNqPftxm</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>대유위니아 MPP07CAWC</t>
+          <t>삼성전자 AF16R5773WSR</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>366350</v>
+        <v>1822490</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>대유위니아 MPP07CAWC</t>
+          <t>삼성전자 AF16R5773WSR</t>
         </is>
       </c>
     </row>
@@ -1268,20 +1268,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=C2pb7ES8VwzzFFzAg4R0t%2F%2F%2F%2Fw%3D%3Ds4R02HQuy8U%2FMU8s6EsjHsi8RMEirrjZl6F63rlqPGQW0ab1F%2FiNRjBAioL5DOy3nlsDji6Z4aKdfL75Ynl2nyPnRHvWGVUund2ZlCze%2BO0DgQn%2B%2BP2kT77mIJOUrF7Cdfb2DXRvElRzldugqKRabSclkuMqcg6YNoQAy6BDIhW0R%2BFkNMF%2FvIP5bdokZmLiuA5CDOZHd7nNoqkd95RNrzZZEKi3xpqGVtr0PnqDTckJf9JMrdtThC9Xc3prmPk5RYznLBM1u%2BQNSrjTdvceuY6%2FVCjt8zcn979WGePkmNB4%2B9HlLcwcwL7lf0hB9OqQaEtoDSMK7HiaJBt%2BaPS%2FwHkkYIJtmGNvhMLwLFBfSwcL4qgrUSrtYAoWFxQ4MVKfOlpJuvAd%2FsWeCdg0xnv9CYKEQxwO%2FsMFsy1Y6zrVT7x%2FtwFMSUUMtGZZ2mIuazcRu6Bx2fiz5w6YGw8gF6T%2BkyJCmNh61sQkguzRwnwkFyaE8YglsOEcxO0udd%2BylS%2BePtYvDEAsMoR0WuH8zh5yQ3zxw4GOzG%2FmQL92oFNJWpqafERs1pk9bW94dyQN51pXs240ueTW2%2B0YV6ne2cUJRvLdTBVDtQmC42yf0whBSZ6mJ0LVdUs43bDLbEtglWLjeeiLcIDsHH0TP%2B0Ra7D1sWb0BIUytSnNlIA59PtOt%2B95yMLUjvxsHt1ZuMk2Cmgdn5i8HRofwW34NvYPrc377jtaePZEi3OH4wOqbhxvnQu42rKd5LfcXEa6QRBFn04Op4XL5cdFg1SMUXcIBcywc3A%3D%3D&amp;nv_mid=13723778132&amp;cat_id=50002522</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=A7tbCLDfuavJ1c3i0Wvtof%2F%2F%2Fw%3D%3Dsi5by7euzaO4JFdSnv9V2GeUR0jGhWQZiwKZCmRcvt%2FO0ab1F%2FiNRjBAioL5DOy3nS7afodrSQZCvABjbI37nSSvH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59EZVgIO42F1ZaXskE4po%2F46fokx%2Bl4FoGy1QI9MhYsm97ezzdZ5SmNRKo6EhCioDiL1LWPyhaJ6gmdGhTWrrmoUEKrYWJYuG42HiLk4m0rWwW8LTblGb7LYgM2272ZMEAVIIbLnhYS4ZjtuoJnvnQMd8Xbcx0QE4%2BHatVetb0K4C99oGf7z%2BqWxGzlZ5nLIBEN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBK832jRPhd%2F3ZH6SebJ%2B10AiL59sHIDW0QmdCB3V%2FLmm4Iv5RLE%2FRLIxSuc9dFFrP1wBKKb7IWugAU3HliZz4ICGWjtTV24JKUwcnZBv8E1uotMDwp9upEmcs3fSfrjDTxCicl%2BoMqU0Wf%2Bgk0Hb62z7SuJRFEy1V1My8KsdezhtoEhoxoMNSzr6T4pM5g24YTuBgfGzIfx0%2FbkKQItFgVOhNURRP8HyGpaC%2FWJHf7eSWh%2F6loHayLw7smVONnyo76rVvUV29wDdlmsbE%2BcPbxc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>공식인증 대유위니아 벽걸이에어컨 18.7㎡ 6형 ERA06CTP 전국기본설치무료</t>
+          <t>대유위니아 MPP07CAWC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>399000</v>
+        <v>366350</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>공식인증 대유위니아 벽걸이에어컨 18.7㎡ 6형 ERA06CTP 전국기본설치무료</t>
+          <t>대유위니아 MPP07CAWC</t>
         </is>
       </c>
     </row>
@@ -1291,20 +1291,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://cr2.shopping.naver.com/adcr.nhn?x=ULeca4vrOOi2ZhyfPs2Fiv%2F%2F%2Fw%3D%3DsdrW%2FYSodWB%2BMfQScZH4552oOB8DxPnaiZCdSt0iNCJMGPlCOslkdMpHfsxh3dljL%2FGi1gZammydyMWDERjqliiqSOZO3b2DP9ZTRwpwjBrjvItwAIfwnOW8QmSEoyFZ2fDKz%2BrEFdijMnBpzQ6uoHuGSdcoYGyMMnNFc8PIZbGDLd9RcrevJWpd%2B4p2MqaJ5Ko4I1rnTnHXv4zcGPZbEp8NYHFUrMNHnkMuB1%2BR3rPTluTH8lSau2X3AwD%2FdahKrb6xbB6g%2FrzIQNMUNBWyRGdX%2FZMMq9hMGxpzr77N%2FPesBgDLjvUj5wsQk1uyp5%2BxXH7DvQnhQBCabdO5D5fW19I3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwa57UunzAfs4N3%2BcS6VggwrOwYcrOS7dmzSIwIbAYq9pfZTIAf%2FvImEcW7nc%2B0RRhNpqedJG1U2BAdzGgoVBhRoPL%2Bj0B%2BbCCqNLlUxdG44SZeNdMkKFVLihn4XBLEIfcELKgj8192%2BpWm7S9C62Ob9Cicl%2BoMqU0Wf%2Bgk0Hb62zwfHfqWMIAJeou2zh7CwAVUtQaOmVS2WIiue1jkViU4mFAAuC5F6Va6BhMnKMpcMWKSZ1cs1D5uDoVOnGaDG4QoLABVKTK8pIwjgadDRzX8ePl%2FYYvX4eO6WWFhuAVbKB</t>
+          <t>http://cr2.shopping.naver.com/adcr.nhn?x=buyshzgs0o8eM8o4Nszjg%2F%2F%2F%2Fw%3D%3DsAdy%2Fw5BU8fo%2BdVjbmnjVJi8RMEirrjZl6F63rlqPGQW0ab1F%2FiNRjBAioL5DOy3nI46Nhg%2BHzAMjtIXZ06gq2ivH2Rh%2B6PRm7rjF%2B9C5Mq%2FOnKDWl1I5085U80y6hqK22jZUbT70JTqihH6zGlN59ESIubQx87Eao%2BbIHclg669CCTxEYumlfmS0CSfIhc3r9V7w9n1lGal%2BD65KwAPplfp8Xmfs6KcPHq8%2BZpmYWRylTx9VSpJJlEGsO5qLSHR%2F2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmAkTqz83L9BcGbcGgIZX15ML4FBdOeuzzgqs8GhDJLeFg3T3hlrAHgv129tCntlYSa5l%2Btz8kHxHY4Z%2BLwswzGXV8M13eQgGCndP1Nx2lYX1%2Baenw4arUz%2FPXiH0fupHO4zLNKHRXsit5dZ6cyeNFtZXSdphW%2FfVVkPgiO%2FbUjjpZFjB%2BY0GOYXMPKhflyxxkQT%2B2Wgo9cUcIVAqzcUDHSgJWQt9XeQTKtyD7XAun%2FhBCSrgHGA2U%2BO4uaiAgAe1wIW7j48p9bRAYF3F7iQt0QpCa1a1ulehc5hgchlTTxqrZl5klB6ghX9tjD6lw5SORenvRzKplq9zX8qjlcJVjV40dKE871JHXHwnXWR4AvFb%2FGilsbpahxBhi5eHZ0uUS9MoePhgyRAyhCqyDXsFYAirJ4gseFHzwyYvf2aqYPnZowfa3ZAzDK9ZDTufg%2B7E7N1%2BSR0cQde5HUknktbgjpw%3D%3D&amp;nv_mid=13723778132&amp;cat_id=50002522</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9DWC1</t>
+          <t>공식인증 대유위니아 벽걸이에어컨 18.7㎡ 6형 ERA06CTP 전국기본설치무료</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2038000</v>
+        <v>399000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LG전자 휘센 FQ17V9DWC1</t>
+          <t>공식인증 대유위니아 벽걸이에어컨 18.7㎡ 6형 ERA06CTP 전국기본설치무료</t>
         </is>
       </c>
     </row>
